--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,116 +413,6 @@
         <v>13471.19224756566</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>575</v>
-      </c>
-      <c r="C4">
-        <v>13425.70417632549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>677</v>
-      </c>
-      <c r="C5">
-        <v>13305.42239651189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>778.3</v>
-      </c>
-      <c r="C6">
-        <v>13203.94577993156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>880</v>
-      </c>
-      <c r="C7">
-        <v>13118.52558847615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>981.4000000000001</v>
-      </c>
-      <c r="C8">
-        <v>13057.37799283735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1098</v>
-      </c>
-      <c r="C9">
-        <v>12991.57828296205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1222</v>
-      </c>
-      <c r="C10">
-        <v>12943.79997042883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1359</v>
-      </c>
-      <c r="C11">
-        <v>12894.28762229605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1513</v>
-      </c>
-      <c r="C12">
-        <v>12838.74071020441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1683</v>
-      </c>
-      <c r="C13">
-        <v>12788.25337762635</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>480.7</v>
+        <v>306</v>
       </c>
       <c r="C2">
-        <v>13570.04173782195</v>
+        <v>12362.7197182723</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,527 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>542.5</v>
+        <v>334</v>
       </c>
       <c r="C3">
-        <v>13471.19224756566</v>
+        <v>12384.4089376467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>361.8</v>
+      </c>
+      <c r="C4">
+        <v>12397.84030043089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>390</v>
+      </c>
+      <c r="C5">
+        <v>12347.42623042517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>418</v>
+      </c>
+      <c r="C6">
+        <v>12355.57587948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>446</v>
+      </c>
+      <c r="C7">
+        <v>12358.28273872641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>474</v>
+      </c>
+      <c r="C8">
+        <v>12359.90977645485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>502</v>
+      </c>
+      <c r="C9">
+        <v>12347.058809968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>530.3</v>
+      </c>
+      <c r="C10">
+        <v>12333.70003590184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>558</v>
+      </c>
+      <c r="C11">
+        <v>12331.31630145057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>563.5</v>
+      </c>
+      <c r="C12">
+        <v>12329.73627959844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>588.4000000000001</v>
+      </c>
+      <c r="C13">
+        <v>12325.52286418853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>614</v>
+      </c>
+      <c r="C14">
+        <v>12317.2638704897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>639</v>
+      </c>
+      <c r="C15">
+        <v>12311.71614746707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>664.6</v>
+      </c>
+      <c r="C16">
+        <v>12308.63988667974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>689.5</v>
+      </c>
+      <c r="C17">
+        <v>12296.9871061458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>715</v>
+      </c>
+      <c r="C18">
+        <v>12289.18074932917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>740</v>
+      </c>
+      <c r="C19">
+        <v>12283.00161538054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>765</v>
+      </c>
+      <c r="C20">
+        <v>12277.49691427071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>790.5</v>
+      </c>
+      <c r="C21">
+        <v>12273.07547475431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>816</v>
+      </c>
+      <c r="C22">
+        <v>12268.20311668031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>841.3000000000001</v>
+      </c>
+      <c r="C23">
+        <v>12262.89140110104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>866</v>
+      </c>
+      <c r="C24">
+        <v>12260.62749882806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>891.5999999999999</v>
+      </c>
+      <c r="C25">
+        <v>12253.44332547795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>917</v>
+      </c>
+      <c r="C26">
+        <v>12250.12565907346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>942.4</v>
+      </c>
+      <c r="C27">
+        <v>12244.57685625546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>967.3000000000001</v>
+      </c>
+      <c r="C28">
+        <v>12240.46338575469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>992.7</v>
+      </c>
+      <c r="C29">
+        <v>12240.46227324216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1018</v>
+      </c>
+      <c r="C30">
+        <v>12238.22290210497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1055</v>
+      </c>
+      <c r="C31">
+        <v>12231.43198938337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1083</v>
+      </c>
+      <c r="C32">
+        <v>12230.22580934763</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1112</v>
+      </c>
+      <c r="C33">
+        <v>12228.72067064173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1143</v>
+      </c>
+      <c r="C34">
+        <v>12224.46111875475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1174</v>
+      </c>
+      <c r="C35">
+        <v>12222.49290238164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1205</v>
+      </c>
+      <c r="C36">
+        <v>12222.03529727284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1237</v>
+      </c>
+      <c r="C37">
+        <v>12220.16294890738</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1271</v>
+      </c>
+      <c r="C38">
+        <v>12220.9601840434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1306</v>
+      </c>
+      <c r="C39">
+        <v>12217.90965531133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1341</v>
+      </c>
+      <c r="C40">
+        <v>12213.27088713808</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1377</v>
+      </c>
+      <c r="C41">
+        <v>12210.50225598752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1414</v>
+      </c>
+      <c r="C42">
+        <v>12205.879261733</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1452</v>
+      </c>
+      <c r="C43">
+        <v>12203.9038825722</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1492</v>
+      </c>
+      <c r="C44">
+        <v>12199.27704047385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1532</v>
+      </c>
+      <c r="C45">
+        <v>12193.15113390462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1573</v>
+      </c>
+      <c r="C46">
+        <v>12186.92963477264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1616</v>
+      </c>
+      <c r="C47">
+        <v>12180.7046047302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1659</v>
+      </c>
+      <c r="C48">
+        <v>12182.21530017216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1704</v>
+      </c>
+      <c r="C49">
+        <v>12175.12257087294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1751</v>
+      </c>
+      <c r="C50">
+        <v>12169.82407055778</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>306</v>
+        <v>300.5</v>
       </c>
       <c r="C2">
-        <v>12362.7197182723</v>
+        <v>13829.57077530367</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>334</v>
+        <v>314.5</v>
       </c>
       <c r="C3">
-        <v>12384.4089376467</v>
+        <v>13798.34573850303</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>361.8</v>
+        <v>328.4</v>
       </c>
       <c r="C4">
-        <v>12397.84030043089</v>
+        <v>13784.82275098525</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="C5">
-        <v>12347.42623042517</v>
+        <v>13757.7111932744</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>418</v>
+        <v>356</v>
       </c>
       <c r="C6">
-        <v>12355.57587948</v>
+        <v>13733.50841330345</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>446</v>
+        <v>369.6</v>
       </c>
       <c r="C7">
-        <v>12358.28273872641</v>
+        <v>13710.96301541541</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>474</v>
+        <v>383.5</v>
       </c>
       <c r="C8">
-        <v>12359.90977645485</v>
+        <v>13729.22856815839</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>502</v>
+        <v>397.5</v>
       </c>
       <c r="C9">
-        <v>12347.058809968</v>
+        <v>13675.52039284026</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>530.3</v>
+        <v>411.1</v>
       </c>
       <c r="C10">
-        <v>12333.70003590184</v>
+        <v>13685.15160235384</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>558</v>
+        <v>425</v>
       </c>
       <c r="C11">
-        <v>12331.31630145057</v>
+        <v>13651.03537687185</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>563.5</v>
+        <v>439</v>
       </c>
       <c r="C12">
-        <v>12329.73627959844</v>
+        <v>13632.27689882129</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>588.4000000000001</v>
+        <v>452.6</v>
       </c>
       <c r="C13">
-        <v>12325.52286418853</v>
+        <v>13615.56496736183</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>614</v>
+        <v>466.6</v>
       </c>
       <c r="C14">
-        <v>12317.2638704897</v>
+        <v>13592.55321879471</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>639</v>
+        <v>480.5</v>
       </c>
       <c r="C15">
-        <v>12311.71614746707</v>
+        <v>13576.07599865851</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>664.6</v>
+        <v>494.1</v>
       </c>
       <c r="C16">
-        <v>12308.63988667974</v>
+        <v>13545.1209805646</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>689.5</v>
+        <v>508.3</v>
       </c>
       <c r="C17">
-        <v>12296.9871061458</v>
+        <v>13525.25262210325</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>715</v>
+        <v>522</v>
       </c>
       <c r="C18">
-        <v>12289.18074932917</v>
+        <v>13494.53871429185</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>740</v>
+        <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>12283.00161538054</v>
+        <v>13479.39767999029</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>765</v>
+        <v>550</v>
       </c>
       <c r="C20">
-        <v>12277.49691427071</v>
+        <v>13464.08422607948</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>790.5</v>
+        <v>563.5</v>
       </c>
       <c r="C21">
-        <v>12273.07547475431</v>
+        <v>13443.66744424574</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>816</v>
+        <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>12268.20311668031</v>
+        <v>13412.99572174015</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>841.3000000000001</v>
+        <v>614</v>
       </c>
       <c r="C23">
-        <v>12262.89140110104</v>
+        <v>13378.40109863953</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>866</v>
+        <v>639</v>
       </c>
       <c r="C24">
-        <v>12260.62749882806</v>
+        <v>13348.14969893239</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>891.5999999999999</v>
+        <v>664.6</v>
       </c>
       <c r="C25">
-        <v>12253.44332547795</v>
+        <v>13317.25640898218</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>917</v>
+        <v>689.5</v>
       </c>
       <c r="C26">
-        <v>12250.12565907346</v>
+        <v>13290.83580293278</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>942.4</v>
+        <v>715</v>
       </c>
       <c r="C27">
-        <v>12244.57685625546</v>
+        <v>13262.42358578056</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>967.3000000000001</v>
+        <v>740</v>
       </c>
       <c r="C28">
-        <v>12240.46338575469</v>
+        <v>13236.51124327019</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>992.7</v>
+        <v>765</v>
       </c>
       <c r="C29">
-        <v>12240.46227324216</v>
+        <v>13212.54115925485</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1018</v>
+        <v>790.5</v>
       </c>
       <c r="C30">
-        <v>12238.22290210497</v>
+        <v>13191.19526095858</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1055</v>
+        <v>816</v>
       </c>
       <c r="C31">
-        <v>12231.43198938337</v>
+        <v>13169.59761725967</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1083</v>
+        <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>12230.22580934763</v>
+        <v>13147.19450890778</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1112</v>
+        <v>866</v>
       </c>
       <c r="C33">
-        <v>12228.72067064173</v>
+        <v>13129.47389008012</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1143</v>
+        <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>12224.46111875475</v>
+        <v>13107.60827624802</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1174</v>
+        <v>917</v>
       </c>
       <c r="C35">
-        <v>12222.49290238164</v>
+        <v>13093.82921692181</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1205</v>
+        <v>942.4</v>
       </c>
       <c r="C36">
-        <v>12222.03529727284</v>
+        <v>13077.81352005033</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1237</v>
+        <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>12220.16294890738</v>
+        <v>13059.79395945012</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1271</v>
+        <v>992.7</v>
       </c>
       <c r="C38">
-        <v>12220.9601840434</v>
+        <v>13051.16955260255</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1306</v>
+        <v>1018</v>
       </c>
       <c r="C39">
-        <v>12217.90965531133</v>
+        <v>13036.18844731491</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1341</v>
+        <v>1055</v>
       </c>
       <c r="C40">
-        <v>12213.27088713808</v>
+        <v>13014.84125138863</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1377</v>
+        <v>1083</v>
       </c>
       <c r="C41">
-        <v>12210.50225598752</v>
+        <v>12997.62738210208</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1414</v>
+        <v>1112</v>
       </c>
       <c r="C42">
-        <v>12205.879261733</v>
+        <v>12989.09665289716</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1452</v>
+        <v>1143</v>
       </c>
       <c r="C43">
-        <v>12203.9038825722</v>
+        <v>12973.88741734184</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1492</v>
+        <v>1174</v>
       </c>
       <c r="C44">
-        <v>12199.27704047385</v>
+        <v>12960.65204192398</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1532</v>
+        <v>1205</v>
       </c>
       <c r="C45">
-        <v>12193.15113390462</v>
+        <v>12950.86462541251</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1573</v>
+        <v>1237</v>
       </c>
       <c r="C46">
-        <v>12186.92963477264</v>
+        <v>12938.62893550024</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1616</v>
+        <v>1271</v>
       </c>
       <c r="C47">
-        <v>12180.7046047302</v>
+        <v>12925.86418645381</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1659</v>
+        <v>1306</v>
       </c>
       <c r="C48">
-        <v>12182.21530017216</v>
+        <v>12915.17140127718</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1704</v>
+        <v>1341</v>
       </c>
       <c r="C49">
-        <v>12175.12257087294</v>
+        <v>12900.73781980283</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,109 @@
         <v>48</v>
       </c>
       <c r="B50">
+        <v>1377</v>
+      </c>
+      <c r="C50">
+        <v>12888.04447691916</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1414</v>
+      </c>
+      <c r="C51">
+        <v>12872.7927092902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1452</v>
+      </c>
+      <c r="C52">
+        <v>12861.4395289921</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1492</v>
+      </c>
+      <c r="C53">
+        <v>12846.26581892168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1532</v>
+      </c>
+      <c r="C54">
+        <v>12830.77116018516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1573</v>
+      </c>
+      <c r="C55">
+        <v>12814.85227933144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1616</v>
+      </c>
+      <c r="C56">
+        <v>12798.58931511302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1659</v>
+      </c>
+      <c r="C57">
+        <v>12793.46200801357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1704</v>
+      </c>
+      <c r="C58">
+        <v>12777.35696655291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
         <v>1751</v>
       </c>
-      <c r="C50">
-        <v>12169.82407055778</v>
+      <c r="C59">
+        <v>12763.48093909863</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>13829.57077530367</v>
+        <v>14244.20809630433</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>13798.34573850303</v>
+        <v>14201.72376373774</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>13784.82275098525</v>
+        <v>14177.88183312008</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>13757.7111932744</v>
+        <v>14143.26463946003</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>13733.50841330345</v>
+        <v>14108.89669215609</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>13710.96301541541</v>
+        <v>14076.50732436672</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>13729.22856815839</v>
+        <v>14112.47597045651</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>13675.52039284026</v>
+        <v>14050.53190620942</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>13685.15160235384</v>
+        <v>14050.88210722549</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>13651.03537687185</v>
+        <v>14017.9595570622</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>13632.27689882129</v>
+        <v>13986.37906660038</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>13615.56496736183</v>
+        <v>13965.94383207828</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>13592.55321879471</v>
+        <v>13936.28939878377</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>13576.07599865851</v>
+        <v>13912.35147961678</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>13545.1209805646</v>
+        <v>13875.60539263288</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>13525.25262210325</v>
+        <v>13852.02782900641</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>13494.53871429185</v>
+        <v>13815.6058820702</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>13479.39767999029</v>
+        <v>13795.50913909266</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>13464.08422607948</v>
+        <v>13775.74594476116</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>13443.66744424574</v>
+        <v>13750.52224471351</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>13412.99572174015</v>
+        <v>13712.00724510335</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>13378.40109863953</v>
+        <v>13669.62694556273</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>13348.14969893239</v>
+        <v>13632.10709733831</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>13317.25640898218</v>
+        <v>13593.11623721271</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>13290.83580293278</v>
+        <v>13562.2340413577</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>13262.42358578056</v>
+        <v>13527.78271442323</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>13236.51124327019</v>
+        <v>13496.11122976513</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>13212.54115925485</v>
+        <v>13466.75875267045</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>13191.19526095858</v>
+        <v>13440.47937955328</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>13169.59761725967</v>
+        <v>13414.02905985922</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>13147.19450890778</v>
+        <v>13386.70093776595</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>13129.47389008012</v>
+        <v>13364.53361204648</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>13107.60827624802</v>
+        <v>13338.42366110449</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>13093.82921692181</v>
+        <v>13321.56705953147</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>13077.81352005033</v>
+        <v>13302.47834923282</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>13059.79395945012</v>
+        <v>13280.48763019507</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>13051.16955260255</v>
+        <v>13269.33586432411</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>13036.18844731491</v>
+        <v>13250.73199960647</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>13014.84125138863</v>
+        <v>13225.1822879611</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>12997.62738210208</v>
+        <v>13203.50000294101</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>12989.09665289716</v>
+        <v>13192.88757491877</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>12973.88741734184</v>
+        <v>13174.5466072718</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>12960.65204192398</v>
+        <v>13158.12320189669</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>12950.86462541251</v>
+        <v>13145.6660322905</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>12938.62893550024</v>
+        <v>13130.49620177564</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>12925.86418645381</v>
+        <v>13113.96904939777</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>12915.17140127718</v>
+        <v>13101.08118653441</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>12900.73781980283</v>
+        <v>13083.85573564996</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>12888.04447691916</v>
+        <v>13068.36457313243</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>12872.7927092902</v>
+        <v>13050.17654341745</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>12861.4395289921</v>
+        <v>13036.20767487457</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>12846.26581892168</v>
+        <v>13018.11100657613</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>12830.77116018516</v>
+        <v>13000.02339372497</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>12814.85227933144</v>
+        <v>12981.34543754426</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>12798.58931511302</v>
+        <v>12962.29786515524</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>12793.46200801357</v>
+        <v>12955.45444742052</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>12777.35696655291</v>
+        <v>12936.68658286884</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>12763.48093909863</v>
+        <v>12920.41038155967</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>14244.20809630433</v>
+        <v>3864.003151314854</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>14201.72376373774</v>
+        <v>4032.565189692972</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>14177.88183312008</v>
+        <v>4172.797737398093</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>14143.26463946003</v>
+        <v>4275.681424680156</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>14108.89669215609</v>
+        <v>4421.103665140147</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>14076.50732436672</v>
+        <v>4562.8138225845</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>14112.47597045651</v>
+        <v>4168.75072638867</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>14050.53190620942</v>
+        <v>4296.681196381269</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>14050.88210722549</v>
+        <v>4399.909968231253</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>14017.9595570622</v>
+        <v>4339.081639163523</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>13986.37906660038</v>
+        <v>4532.3797990523</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>13965.94383207828</v>
+        <v>4551.220592847516</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>13936.28939878377</v>
+        <v>4632.024569265814</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>13912.35147961678</v>
+        <v>4726.52469657353</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>13875.60539263288</v>
+        <v>4801.830961006282</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>13852.02782900641</v>
+        <v>4823.803935421367</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>13815.6058820702</v>
+        <v>4899.702323349131</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>13795.50913909266</v>
+        <v>4949.101679397882</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>13775.74594476116</v>
+        <v>4985.398429293686</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>13750.52224471351</v>
+        <v>5039.45135531525</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>13712.00724510335</v>
+        <v>5115.05939331125</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>13669.62694556273</v>
+        <v>5194.536377584491</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>13632.10709733831</v>
+        <v>5267.091621051989</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>13593.11623721271</v>
+        <v>5363.216622853107</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>13562.2340413577</v>
+        <v>5376.028799266796</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>13527.78271442323</v>
+        <v>5431.134417735461</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>13496.11122976513</v>
+        <v>5484.794636495427</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>13466.75875267045</v>
+        <v>5532.381084508597</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>13440.47937955328</v>
+        <v>5568.857852270792</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>13414.02905985922</v>
+        <v>5608.239449197749</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>13386.70093776595</v>
+        <v>5656.319138321764</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>13364.53361204648</v>
+        <v>5694.667115556107</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>13338.42366110449</v>
+        <v>5731.382812788844</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>13321.56705953147</v>
+        <v>5732.444684351412</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>13302.47834923282</v>
+        <v>5738.771914396423</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>13280.48763019507</v>
+        <v>5779.697968151032</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>13269.33586432411</v>
+        <v>5770.874073456223</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>13250.73199960647</v>
+        <v>5805.17458340013</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>13225.1822879611</v>
+        <v>5826.897384379914</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>13203.50000294101</v>
+        <v>5891.684674193875</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>13192.88757491877</v>
+        <v>5871.974135824853</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>13174.5466072718</v>
+        <v>5889.944781996448</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>13158.12320189669</v>
+        <v>5913.282604318892</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>13145.6660322905</v>
+        <v>5919.938361341304</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>13130.49620177564</v>
+        <v>5939.355236882049</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>13113.96904939777</v>
+        <v>5988.324192142125</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>13101.08118653441</v>
+        <v>5981.220819227029</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>13083.85573564996</v>
+        <v>6002.397726965758</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>13068.36457313243</v>
+        <v>6025.023720613532</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>13050.17654341745</v>
+        <v>6058.582142181468</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>13036.20767487457</v>
+        <v>6078.379926516941</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>13018.11100657613</v>
+        <v>6113.784192456451</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>13000.02339372497</v>
+        <v>6142.145992182102</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>12981.34543754426</v>
+        <v>6177.3733886481</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>12962.29786515524</v>
+        <v>6216.909589940034</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>12955.45444742052</v>
+        <v>6213.433865934981</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>12936.68658286884</v>
+        <v>6247.879002986622</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>12920.41038155967</v>
+        <v>6276.06097900224</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>3864.003151314854</v>
+        <v>12359.7663786581</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>4032.565189692972</v>
+        <v>12365.52392646739</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>4172.797737398093</v>
+        <v>12386.16764613731</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>4275.681424680156</v>
+        <v>12383.78269112561</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>4421.103665140147</v>
+        <v>12393.38329307316</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>4562.8138225845</v>
+        <v>12403.8113467031</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>4168.75072638867</v>
+        <v>12361.45276949163</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>4296.681196381269</v>
+        <v>12334.56858929871</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>4399.909968231253</v>
+        <v>12375.39338907934</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>4339.081639163523</v>
+        <v>12336.28930582964</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>4532.3797990523</v>
+        <v>12360.79728425732</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>4551.220592847516</v>
+        <v>12356.07044203646</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>4632.024569265814</v>
+        <v>12355.20782869404</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>4726.52469657353</v>
+        <v>12363.90302125456</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>4801.830961006282</v>
+        <v>12352.23787712647</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>4823.803935421367</v>
+        <v>12344.47452774534</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>4899.702323349131</v>
+        <v>12332.88999475801</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>4949.101679397882</v>
+        <v>12334.420208576</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>4985.398429293686</v>
+        <v>12333.99086895182</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>5039.45135531525</v>
+        <v>12329.76728460067</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>5115.05939331125</v>
+        <v>12325.52286418853</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>5194.536377584491</v>
+        <v>12317.2638704897</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>5267.091621051989</v>
+        <v>12311.71614746707</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>5363.216622853107</v>
+        <v>12308.63988667974</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>5376.028799266796</v>
+        <v>12296.9871061458</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>5431.134417735461</v>
+        <v>12289.18074932917</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>5484.794636495427</v>
+        <v>12283.00161538054</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>5532.381084508597</v>
+        <v>12277.49691427071</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>5568.857852270792</v>
+        <v>12273.07547475431</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>5608.239449197749</v>
+        <v>12268.20311668031</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>5656.319138321764</v>
+        <v>12262.89140110104</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>5694.667115556107</v>
+        <v>12260.62749882806</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>5731.382812788844</v>
+        <v>12253.44332547795</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>5732.444684351412</v>
+        <v>12250.12565907346</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>5738.771914396423</v>
+        <v>12244.57685625546</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>5779.697968151032</v>
+        <v>12240.46338575469</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>5770.874073456223</v>
+        <v>12240.46227324216</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>5805.17458340013</v>
+        <v>12238.22290210497</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>5826.897384379914</v>
+        <v>12231.43198938337</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>5891.684674193875</v>
+        <v>12230.22580934763</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>5871.974135824853</v>
+        <v>12228.72067064173</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>5889.944781996448</v>
+        <v>12224.46111875475</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>5913.282604318892</v>
+        <v>12222.49290238164</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>5919.938361341304</v>
+        <v>12222.03529727284</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>5939.355236882049</v>
+        <v>12220.16294890738</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>5988.324192142125</v>
+        <v>12220.9601840434</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>5981.220819227029</v>
+        <v>12217.90965531133</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>6002.397726965758</v>
+        <v>12213.27088713808</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>6025.023720613532</v>
+        <v>12210.50225598752</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>6058.582142181468</v>
+        <v>12205.879261733</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>6078.379926516941</v>
+        <v>12203.9038825722</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>6113.784192456451</v>
+        <v>12199.27704047385</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>6142.145992182102</v>
+        <v>12193.15113390462</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>6177.3733886481</v>
+        <v>12186.92963477264</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>6216.909589940034</v>
+        <v>12180.7046047302</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>6213.433865934981</v>
+        <v>12182.21530017216</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>6247.879002986622</v>
+        <v>12175.12257087294</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>6276.06097900224</v>
+        <v>12169.82407055778</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>12359.7663786581</v>
+        <v>9997.246906068069</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>12365.52392646739</v>
+        <v>10173.45744822817</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>12386.16764613731</v>
+        <v>10339.93953956769</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>12383.78269112561</v>
+        <v>10431.95027711086</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>12393.38329307316</v>
+        <v>10592.37669578395</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>12403.8113467031</v>
+        <v>10746.00605383846</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>12361.45276949163</v>
+        <v>10271.87855223233</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>12334.56858929871</v>
+        <v>10369.10025149762</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>12375.39338907934</v>
+        <v>10532.14637421962</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>12336.28930582964</v>
+        <v>10407.58267755104</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>12360.79728425732</v>
+        <v>10632.81133896388</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>12356.07044203646</v>
+        <v>10651.1099562725</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>12355.20782869404</v>
+        <v>10726.85278796381</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>12363.90302125456</v>
+        <v>10828.75712841147</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>12352.23787712647</v>
+        <v>10882.98531550991</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>12344.47452774534</v>
+        <v>10890.62910734961</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>12332.88999475801</v>
+        <v>10942.57470522964</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>12334.420208576</v>
+        <v>10991.56801295198</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>12333.99086895182</v>
+        <v>11023.61004017605</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>12329.76728460067</v>
+        <v>11067.69167583976</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>12325.52286418853</v>
+        <v>11130.51835252798</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>12317.2638704897</v>
+        <v>11188.64494197969</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>12311.71614746707</v>
+        <v>11244.32732485725</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>12308.63988667974</v>
+        <v>11326.26999923725</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>12296.9871061458</v>
+        <v>11317.27012166006</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>12289.18074932917</v>
+        <v>11352.86163011717</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>12283.00161538054</v>
+        <v>11390.24358065011</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>12277.49691427071</v>
+        <v>11423.33321721212</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>12273.07547475431</v>
+        <v>11446.53281407104</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>12268.20311668031</v>
+        <v>11471.75498974751</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>12262.89140110104</v>
+        <v>11504.39738237219</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>12260.62749882806</v>
+        <v>11532.65579059415</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>12253.44332547795</v>
+        <v>11553.73698554174</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>12250.12565907346</v>
+        <v>11546.035698489</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>12244.57685625546</v>
+        <v>11541.61392115616</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>12240.46338575469</v>
+        <v>11572.08635561047</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>12240.46227324216</v>
+        <v>11559.62338037264</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>12238.22290210497</v>
+        <v>11586.16365151377</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>12231.43198938337</v>
+        <v>11593.47519524045</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>12230.22580934763</v>
+        <v>11649.39243731134</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>12228.72067064173</v>
+        <v>11626.46082571328</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>12224.46111875475</v>
+        <v>11634.53273713433</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>12222.49290238164</v>
+        <v>11651.48835333896</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>12222.03529727284</v>
+        <v>11655.79836002462</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>12220.16294890738</v>
+        <v>11669.77365811561</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>12220.9601840434</v>
+        <v>11714.87602733246</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>12217.90965531133</v>
+        <v>11700.85087783734</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>12213.27088713808</v>
+        <v>11714.23676616257</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>12210.50225598752</v>
+        <v>11730.35249669618</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>12205.879261733</v>
+        <v>11753.82501792888</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>12203.9038825722</v>
+        <v>11767.72335051302</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>12199.27704047385</v>
+        <v>11790.28777418434</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>12193.15113390462</v>
+        <v>11806.90118486327</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>12186.92963477264</v>
+        <v>11829.74660756819</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>12180.7046047302</v>
+        <v>11856.38309275827</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>12182.21530017216</v>
+        <v>11851.24584566233</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>12175.12257087294</v>
+        <v>11870.78751915871</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>12169.82407055778</v>
+        <v>11887.16992177463</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>9997.246906068069</v>
+        <v>17662.27096434525</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>10173.45744822817</v>
+        <v>17332.44617459095</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>10339.93953956769</v>
+        <v>17020.93522754256</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>10431.95027711086</v>
+        <v>16833.32822805317</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>10592.37669578395</v>
+        <v>16538.7342770511</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>10746.00605383846</v>
+        <v>16251.78958823426</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>10271.87855223233</v>
+        <v>17048.68430782569</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>10369.10025149762</v>
+        <v>16867.07296985057</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>10532.14637421962</v>
+        <v>16575.0902168118</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>10407.58267755104</v>
+        <v>16763.74460718088</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>10632.81133896388</v>
+        <v>16351.94345054924</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>10651.1099562725</v>
+        <v>16314.91758482173</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>10726.85278796381</v>
+        <v>16162.77515283737</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>10828.75712841147</v>
+        <v>15965.8305228978</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>10882.98531550991</v>
+        <v>15849.80456782925</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>10890.62910734961</v>
+        <v>15817.51626305694</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>10942.57470522964</v>
+        <v>15701.78034877345</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>10991.56801295198</v>
+        <v>15601.36284657243</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>11023.61004017605</v>
+        <v>15528.12566353889</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>11067.69167583976</v>
+        <v>15433.95384278634</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>11130.51835252798</v>
+        <v>15294.55460663398</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>11188.64494197969</v>
+        <v>15158.90057301816</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>11244.32732485725</v>
+        <v>15030.45763530442</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>11326.26999923725</v>
+        <v>14857.28982172285</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>11317.27012166006</v>
+        <v>14845.0408508628</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>11352.86163011717</v>
+        <v>14753.63493998294</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>11390.24358065011</v>
+        <v>14662.02616363277</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>11423.33321721212</v>
+        <v>14579.83724974177</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>11446.53281407104</v>
+        <v>14514.50781988384</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>11471.75498974751</v>
+        <v>14446.00062549772</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>11504.39738237219</v>
+        <v>14365.10377217448</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>11532.65579059415</v>
+        <v>14294.48538702716</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>11553.73698554174</v>
+        <v>14237.04611460397</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>11546.035698489</v>
+        <v>14230.64640748517</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>11541.61392115616</v>
+        <v>14220.5246005539</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>11572.08635561047</v>
+        <v>14151.2143321999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>11559.62338037264</v>
+        <v>14155.34556206754</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>11586.16365151377</v>
+        <v>14093.76799487183</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>11593.47519524045</v>
+        <v>14058.43545997221</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>11649.39243731134</v>
+        <v>13945.55298608913</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>11626.46082571328</v>
+        <v>13970.3714367555</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>11634.53273713433</v>
+        <v>13939.64634520983</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>11651.48835333896</v>
+        <v>13895.86956098587</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>11655.79836002462</v>
+        <v>13876.01666224103</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>11669.77365811561</v>
+        <v>13838.9260151458</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>11714.87602733246</v>
+        <v>13748.83502408908</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>11700.85087783734</v>
+        <v>13757.16632557489</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>11714.23676616257</v>
+        <v>13723.26536673252</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>11730.35249669618</v>
+        <v>13683.6258856331</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>11753.82501792888</v>
+        <v>13630.64496857635</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>11767.72335051302</v>
+        <v>13594.76007637084</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>11790.28777418434</v>
+        <v>13540.00493931051</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>11806.90118486327</v>
+        <v>13499.49915695492</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>11829.74660756819</v>
+        <v>13448.66614774409</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>11856.38309275827</v>
+        <v>13390.78340461597</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>11851.24584566233</v>
+        <v>13386.71993698526</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>11870.78751915871</v>
+        <v>13340.24435578429</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>11887.16992177463</v>
+        <v>13299.53133240902</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>17662.27096434525</v>
+        <v>18300.23277067938</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>17332.44617459095</v>
+        <v>17912.55552228088</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>17020.93522754256</v>
+        <v>17539.24431871234</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>16833.32822805317</v>
+        <v>17320.42629091013</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>16538.7342770511</v>
+        <v>16972.70129909401</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>16251.78958823426</v>
+        <v>16631.44812727813</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>17048.68430782569</v>
+        <v>17584.37173099092</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>16867.07296985057</v>
+        <v>17389.78154742577</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>16575.0902168118</v>
+        <v>17031.35949811108</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>16763.74460718088</v>
+        <v>17273.09022877821</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>16351.94345054924</v>
+        <v>16780.19201285963</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>16314.91758482173</v>
+        <v>16744.54148594529</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>16162.77515283737</v>
+        <v>16568.50356121331</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>15965.8305228978</v>
+        <v>16334.46588526788</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>15849.80456782925</v>
+        <v>16205.43440959932</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>15817.51626305694</v>
+        <v>16174.44612143482</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>15701.78034877345</v>
+        <v>16044.65117842302</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>15601.36284657243</v>
+        <v>15927.98005195628</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>15528.12566353889</v>
+        <v>15844.66941394302</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>15433.95384278634</v>
+        <v>15737.81980825495</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>15294.55460663398</v>
+        <v>15579.60807007752</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>15158.90057301816</v>
+        <v>15426.05220739579</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>15030.45763530442</v>
+        <v>15279.19274538614</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>14857.28982172285</v>
+        <v>15077.42083040364</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>14845.0408508628</v>
+        <v>15073.92840714972</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>14753.63493998294</v>
+        <v>14971.79707693963</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>14662.02616363277</v>
+        <v>14868.67298732852</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>14579.83724974177</v>
+        <v>14776.63007660346</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>14514.50781988384</v>
+        <v>14703.80824151496</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>14446.00062549772</v>
+        <v>14626.65524763351</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>14365.10377217448</v>
+        <v>14533.91394226455</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>14294.48538702716</v>
+        <v>14452.58725590137</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>14237.04611460397</v>
+        <v>14389.90463840106</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>14230.64640748517</v>
+        <v>14387.73749508304</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>14220.5246005539</v>
+        <v>14382.43484476753</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>14151.2143321999</v>
+        <v>14303.62624611481</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>14155.34556206754</v>
+        <v>14312.20933958654</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>14093.76799487183</v>
+        <v>14240.83109155794</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>14058.43545997221</v>
+        <v>14206.25703078415</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>13945.55298608913</v>
+        <v>14071.46362633405</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>13970.3714367555</v>
+        <v>14107.07213138274</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>13939.64634520983</v>
+        <v>14074.25141069374</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>13895.86956098587</v>
+        <v>14024.96077784543</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>13876.01666224103</v>
+        <v>14004.74493568959</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>13838.9260151458</v>
+        <v>13964.43096573496</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>13748.83502408908</v>
+        <v>13855.82745079061</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>13757.16632557489</v>
+        <v>13870.1347764657</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>13723.26536673252</v>
+        <v>13834.23288740959</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>13683.6258856331</v>
+        <v>13791.1434129584</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>13630.64496857635</v>
+        <v>13731.3428529211</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>13594.76007637084</v>
+        <v>13689.51329281576</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>13540.00493931051</v>
+        <v>13625.98598907716</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>13499.49915695492</v>
+        <v>13577.60471057701</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>13448.66614774409</v>
+        <v>13519.80425924637</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>13390.78340461597</v>
+        <v>13461.06049302997</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>13386.71993698526</v>
+        <v>13448.26111248931</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>13340.24435578429</v>
+        <v>13393.41712122999</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>13299.53133240902</v>
+        <v>13349.97836176433</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>18300.23277067938</v>
+        <v>3864.003151314854</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>17912.55552228088</v>
+        <v>4032.565189692972</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>17539.24431871234</v>
+        <v>4172.797737398093</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>17320.42629091013</v>
+        <v>4275.681424680156</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>16972.70129909401</v>
+        <v>4421.103665140147</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>16631.44812727813</v>
+        <v>4562.8138225845</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>17584.37173099092</v>
+        <v>4168.75072638867</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>17389.78154742577</v>
+        <v>4296.681196381269</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>17031.35949811108</v>
+        <v>4399.909968231253</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>17273.09022877821</v>
+        <v>4339.081639163523</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>16780.19201285963</v>
+        <v>4532.3797990523</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>16744.54148594529</v>
+        <v>4551.220592847516</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>16568.50356121331</v>
+        <v>4632.024569265814</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>16334.46588526788</v>
+        <v>4726.52469657353</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>16205.43440959932</v>
+        <v>4801.830961006282</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>16174.44612143482</v>
+        <v>4823.803935421367</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>16044.65117842302</v>
+        <v>4899.702323349131</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>15927.98005195628</v>
+        <v>4949.101679397882</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>15844.66941394302</v>
+        <v>4985.398429293686</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>15737.81980825495</v>
+        <v>5039.45135531525</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>15579.60807007752</v>
+        <v>5115.05939331125</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>15426.05220739579</v>
+        <v>5194.536377584491</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>15279.19274538614</v>
+        <v>5267.091621051989</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>15077.42083040364</v>
+        <v>5363.216622853107</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>15073.92840714972</v>
+        <v>5376.028799266796</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>14971.79707693963</v>
+        <v>5431.134417735461</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>14868.67298732852</v>
+        <v>5484.794636495427</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>14776.63007660346</v>
+        <v>5532.381084508597</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>14703.80824151496</v>
+        <v>5568.857852270792</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>14626.65524763351</v>
+        <v>5608.239449197749</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>14533.91394226455</v>
+        <v>5656.319138321764</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>14452.58725590137</v>
+        <v>5694.667115556107</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>14389.90463840106</v>
+        <v>5731.382812788844</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>14387.73749508304</v>
+        <v>5732.444684351412</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>14382.43484476753</v>
+        <v>5738.771914396423</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>14303.62624611481</v>
+        <v>5779.697968151032</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>14312.20933958654</v>
+        <v>5770.874073456223</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>14240.83109155794</v>
+        <v>5805.17458340013</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>14206.25703078415</v>
+        <v>5826.897384379914</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>14071.46362633405</v>
+        <v>5891.684674193875</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>14107.07213138274</v>
+        <v>5871.974135824853</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>14074.25141069374</v>
+        <v>5889.944781996448</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>14024.96077784543</v>
+        <v>5913.282604318892</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>14004.74493568959</v>
+        <v>5919.938361341304</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>13964.43096573496</v>
+        <v>5939.355236882049</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>13855.82745079061</v>
+        <v>5988.324192142125</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>13870.1347764657</v>
+        <v>5981.220819227029</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>13834.23288740959</v>
+        <v>6002.397726965758</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>13791.1434129584</v>
+        <v>6025.023720613532</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>13731.3428529211</v>
+        <v>6058.582142181468</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>13689.51329281576</v>
+        <v>6078.379926516941</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>13625.98598907716</v>
+        <v>6113.784192456451</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>13577.60471057701</v>
+        <v>6142.145992182102</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>13519.80425924637</v>
+        <v>6177.3733886481</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>13461.06049302997</v>
+        <v>6216.909589940034</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>13448.26111248931</v>
+        <v>6213.433865934981</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>13393.41712122999</v>
+        <v>6247.879002986622</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>13349.97836176433</v>
+        <v>6276.06097900224</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>3864.003151314854</v>
+        <v>9997.305354974118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>4032.565189692972</v>
+        <v>10173.51547250866</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>4172.797737398093</v>
+        <v>10339.99688949128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>4275.681424680156</v>
+        <v>10432.00721013271</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>4421.103665140147</v>
+        <v>10592.43309026936</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>4562.8138225845</v>
+        <v>10746.06188701777</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>4168.75072638867</v>
+        <v>10271.93456203979</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>4296.681196381269</v>
+        <v>10369.15583946241</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>4399.909968231253</v>
+        <v>10532.20140596678</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>4339.081639163523</v>
+        <v>10407.63742352746</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>4532.3797990523</v>
+        <v>10632.86541128727</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>4551.220592847516</v>
+        <v>10651.16366066776</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>4632.024569265814</v>
+        <v>10726.90588600678</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>4726.52469657353</v>
+        <v>10828.80969521416</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>4801.830961006282</v>
+        <v>10883.03730590035</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>4823.803935421367</v>
+        <v>10890.68079673328</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>4899.702323349131</v>
+        <v>10942.6258786427</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>4949.101679397882</v>
+        <v>10991.61851123054</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>4985.398429293686</v>
+        <v>11023.66004123856</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>5039.45135531525</v>
+        <v>11067.741431801</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>5115.05939331125</v>
+        <v>11130.56701980275</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>5194.536377584491</v>
+        <v>11188.69275449752</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>5267.091621051989</v>
+        <v>11244.37438722337</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>5363.216622853107</v>
+        <v>11326.31612817681</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>5376.028799266796</v>
+        <v>11317.3156051628</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>5431.134417735461</v>
+        <v>11352.90653118182</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>5484.794636495427</v>
+        <v>11390.28768853645</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>5532.381084508597</v>
+        <v>11423.37657571602</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>5568.857852270792</v>
+        <v>11446.57555119166</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>5608.239449197749</v>
+        <v>11471.79704722778</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>5656.319138321764</v>
+        <v>11504.43880956942</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>5694.667115556107</v>
+        <v>11532.69662128031</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>5731.382812788844</v>
+        <v>11553.77725056694</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>5732.444684351412</v>
+        <v>11546.07546645548</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>5738.771914396423</v>
+        <v>11541.65322214518</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>5779.697968151032</v>
+        <v>11572.1251268156</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>5770.874073456223</v>
+        <v>11559.66171221945</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>5805.17458340013</v>
+        <v>11586.20149465328</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>5826.897384379914</v>
+        <v>11593.51241350803</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>5891.684674193875</v>
+        <v>11649.42911001365</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>5871.974135824853</v>
+        <v>11626.49709629082</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>5889.944781996448</v>
+        <v>11634.56853465417</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>5913.282604318892</v>
+        <v>11651.52367596633</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>5919.938361341304</v>
+        <v>11655.8332767206</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>5939.355236882049</v>
+        <v>11669.80892841452</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>5988.324192142125</v>
+        <v>11714.90999410274</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>5981.220819227029</v>
+        <v>11700.88537774361</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>6002.397726965758</v>
+        <v>11714.26996198099</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>6025.023720613532</v>
+        <v>11730.3852431857</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>6058.582142181468</v>
+        <v>11753.85737855894</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>6078.379926516941</v>
+        <v>11767.75527931406</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>6113.784192456451</v>
+        <v>11790.31928536089</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>6142.145992182102</v>
+        <v>11806.9323106359</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>6177.3733886481</v>
+        <v>11829.77734835422</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>6216.909589940034</v>
+        <v>11856.413441378</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>6213.433865934981</v>
+        <v>11851.27583634571</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>6247.879002986622</v>
+        <v>11870.81712359073</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>6276.06097900224</v>
+        <v>11887.19915882064</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1050</v>
+        <v>541.5</v>
       </c>
       <c r="C2">
-        <v>2219.771391013592</v>
+        <v>3406.474784924729</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1069</v>
+        <v>575</v>
       </c>
       <c r="C3">
-        <v>2249.254553673086</v>
+        <v>3487.302902249301</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1088</v>
+        <v>609</v>
       </c>
       <c r="C4">
-        <v>2251.007955525575</v>
+        <v>3570.761868463612</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1107</v>
+        <v>643</v>
       </c>
       <c r="C5">
-        <v>2258.215520805518</v>
+        <v>3667.991761877931</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1128</v>
+        <v>677</v>
       </c>
       <c r="C6">
-        <v>2257.056755427534</v>
+        <v>3725.902302124662</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1147</v>
+        <v>710.4</v>
       </c>
       <c r="C7">
-        <v>2257.757087441914</v>
+        <v>3782.517021425624</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1168</v>
+        <v>744.6</v>
       </c>
       <c r="C8">
-        <v>2260.629685292281</v>
+        <v>3844.413119035495</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1189</v>
+        <v>778.3</v>
       </c>
       <c r="C9">
-        <v>2267.192366060988</v>
+        <v>3892.201346384905</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1211</v>
+        <v>812</v>
       </c>
       <c r="C10">
-        <v>2262.52861406917</v>
+        <v>3937.067075007073</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1232</v>
+        <v>845.7</v>
       </c>
       <c r="C11">
-        <v>2269.8655391169</v>
+        <v>3992.053556954756</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1254</v>
+        <v>880</v>
       </c>
       <c r="C12">
-        <v>2269.371078879478</v>
+        <v>4039.47567020535</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1276</v>
+        <v>913.6</v>
       </c>
       <c r="C13">
-        <v>2270.154902977883</v>
+        <v>4066.922730414091</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1300</v>
+        <v>947.3000000000001</v>
       </c>
       <c r="C14">
-        <v>2268.871976362496</v>
+        <v>4089.806995366763</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1323</v>
+        <v>981.4000000000001</v>
       </c>
       <c r="C15">
-        <v>2280.061305844905</v>
+        <v>4092.194184423303</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1347</v>
+        <v>1015</v>
       </c>
       <c r="C16">
-        <v>2257.578247824244</v>
+        <v>4119.011992607002</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1371</v>
+        <v>1068</v>
       </c>
       <c r="C17">
-        <v>2263.825318931434</v>
+        <v>4187.627135165628</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1395.5</v>
+        <v>1127</v>
       </c>
       <c r="C18">
-        <v>2239.93091068897</v>
+        <v>4191.415051634784</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1421</v>
+        <v>1189</v>
       </c>
       <c r="C19">
-        <v>2243.080554839905</v>
+        <v>4219.402371736014</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1446</v>
+        <v>1254</v>
       </c>
       <c r="C20">
-        <v>2227.16066461659</v>
+        <v>4247.844300415692</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1472</v>
+        <v>1323</v>
       </c>
       <c r="C21">
-        <v>2218.909464954955</v>
+        <v>4273.388073063545</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1498</v>
+        <v>1395.5</v>
       </c>
       <c r="C22">
-        <v>2236.486303515028</v>
+        <v>4310.295263063702</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1525</v>
+        <v>1473</v>
       </c>
       <c r="C23">
-        <v>2230.391278415844</v>
+        <v>4356.2376809686</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>1553</v>
       </c>
       <c r="C24">
-        <v>2236.435622382849</v>
+        <v>4413.663137845747</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1580</v>
+        <v>1638</v>
       </c>
       <c r="C25">
-        <v>2226.435846576002</v>
+        <v>4460.134309582364</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,65 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1608</v>
+        <v>1728</v>
       </c>
       <c r="C26">
-        <v>2250.163529480375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>1638</v>
-      </c>
-      <c r="C27">
-        <v>2261.459199738636</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>1667</v>
-      </c>
-      <c r="C28">
-        <v>2273.898599112312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1697</v>
-      </c>
-      <c r="C29">
-        <v>2268.57879361797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1728</v>
-      </c>
-      <c r="C30">
-        <v>2236.429562811559</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>1758</v>
-      </c>
-      <c r="C31">
-        <v>2238.607990576291</v>
+        <v>4491.98248049687</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>541.5</v>
+        <v>300.5</v>
       </c>
       <c r="C2">
-        <v>3406.474784924729</v>
+        <v>762.0260016065749</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>575</v>
+        <v>314.5</v>
       </c>
       <c r="C3">
-        <v>3487.302902249301</v>
+        <v>653.3675125278693</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>609</v>
+        <v>328.4</v>
       </c>
       <c r="C4">
-        <v>3570.761868463612</v>
+        <v>651.0722269029711</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>643</v>
+        <v>342</v>
       </c>
       <c r="C5">
-        <v>3667.991761877931</v>
+        <v>725.5396761226551</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>677</v>
+        <v>356</v>
       </c>
       <c r="C6">
-        <v>3725.902302124662</v>
+        <v>722.9800601682434</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>710.4</v>
+        <v>369.6</v>
       </c>
       <c r="C7">
-        <v>3782.517021425624</v>
+        <v>737.5102034685721</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>744.6</v>
+        <v>383.5</v>
       </c>
       <c r="C8">
-        <v>3844.413119035495</v>
+        <v>792.8724268292386</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>778.3</v>
+        <v>397.5</v>
       </c>
       <c r="C9">
-        <v>3892.201346384905</v>
+        <v>757.2559962447656</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>812</v>
+        <v>411.1</v>
       </c>
       <c r="C10">
-        <v>3937.067075007073</v>
+        <v>741.9277475497754</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>845.7</v>
+        <v>425</v>
       </c>
       <c r="C11">
-        <v>3992.053556954756</v>
+        <v>771.587115564909</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>880</v>
+        <v>439</v>
       </c>
       <c r="C12">
-        <v>4039.47567020535</v>
+        <v>772.9690252195054</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>913.6</v>
+        <v>452.6</v>
       </c>
       <c r="C13">
-        <v>4066.922730414091</v>
+        <v>759.4929473082601</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>947.3000000000001</v>
+        <v>466.6</v>
       </c>
       <c r="C14">
-        <v>4089.806995366763</v>
+        <v>764.4352321103387</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>981.4000000000001</v>
+        <v>480.5</v>
       </c>
       <c r="C15">
-        <v>4092.194184423303</v>
+        <v>767.2435970582648</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1015</v>
+        <v>494.1</v>
       </c>
       <c r="C16">
-        <v>4119.011992607002</v>
+        <v>785.0918971855637</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1068</v>
+        <v>508.3</v>
       </c>
       <c r="C17">
-        <v>4187.627135165628</v>
+        <v>797.6137422780472</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1127</v>
+        <v>522</v>
       </c>
       <c r="C18">
-        <v>4191.415051634784</v>
+        <v>814.3536812116325</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1189</v>
+        <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>4219.402371736014</v>
+        <v>808.0905683816031</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1254</v>
+        <v>550</v>
       </c>
       <c r="C20">
-        <v>4247.844300415692</v>
+        <v>808.5084822495592</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1323</v>
+        <v>563.5</v>
       </c>
       <c r="C21">
-        <v>4273.388073063545</v>
+        <v>813.5433464647734</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1395.5</v>
+        <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>4310.295263063702</v>
+        <v>821.1813231208121</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1473</v>
+        <v>614</v>
       </c>
       <c r="C23">
-        <v>4356.2376809686</v>
+        <v>829.6482876368749</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1553</v>
+        <v>639</v>
       </c>
       <c r="C24">
-        <v>4413.663137845747</v>
+        <v>837.8054432551796</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1638</v>
+        <v>664.6</v>
       </c>
       <c r="C25">
-        <v>4460.134309582364</v>
+        <v>842.1082801829405</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,439 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1728</v>
+        <v>689.5</v>
       </c>
       <c r="C26">
-        <v>4491.98248049687</v>
+        <v>846.9070709266058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>715</v>
+      </c>
+      <c r="C27">
+        <v>851.3215329473134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>740</v>
+      </c>
+      <c r="C28">
+        <v>858.6663139805717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>765</v>
+      </c>
+      <c r="C29">
+        <v>862.4818024570712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>790.5</v>
+      </c>
+      <c r="C30">
+        <v>864.5183178945804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>816</v>
+      </c>
+      <c r="C31">
+        <v>869.6579489420042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>841.3000000000001</v>
+      </c>
+      <c r="C32">
+        <v>872.1372286916162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>866</v>
+      </c>
+      <c r="C33">
+        <v>874.5767923046266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>891.5999999999999</v>
+      </c>
+      <c r="C34">
+        <v>876.6109888866946</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>917</v>
+      </c>
+      <c r="C35">
+        <v>878.0032223029144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>942.4</v>
+      </c>
+      <c r="C36">
+        <v>879.1654766893142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>967.3000000000001</v>
+      </c>
+      <c r="C37">
+        <v>880.8091001416551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>992.7</v>
+      </c>
+      <c r="C38">
+        <v>881.2800794950615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1018</v>
+      </c>
+      <c r="C39">
+        <v>882.4666734922326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1055</v>
+      </c>
+      <c r="C40">
+        <v>884.3144757978428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1083</v>
+      </c>
+      <c r="C41">
+        <v>885.7969222979544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1112</v>
+      </c>
+      <c r="C42">
+        <v>885.189057912017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1143</v>
+      </c>
+      <c r="C43">
+        <v>885.9960095789487</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1174</v>
+      </c>
+      <c r="C44">
+        <v>886.3204738185359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1205</v>
+      </c>
+      <c r="C45">
+        <v>886.5197746052988</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1237</v>
+      </c>
+      <c r="C46">
+        <v>885.9763263699971</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1271</v>
+      </c>
+      <c r="C47">
+        <v>885.9178807241186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1306</v>
+      </c>
+      <c r="C48">
+        <v>886.3031396784127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1341</v>
+      </c>
+      <c r="C49">
+        <v>886.0770411222019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1377</v>
+      </c>
+      <c r="C50">
+        <v>886.6862969310052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1414</v>
+      </c>
+      <c r="C51">
+        <v>887.867251352814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1452</v>
+      </c>
+      <c r="C52">
+        <v>889.2833314801951</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1492</v>
+      </c>
+      <c r="C53">
+        <v>892.3719697423448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1532</v>
+      </c>
+      <c r="C54">
+        <v>895.3595654327406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1573</v>
+      </c>
+      <c r="C55">
+        <v>900.4763411853967</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1616</v>
+      </c>
+      <c r="C56">
+        <v>905.3683085211705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1659</v>
+      </c>
+      <c r="C57">
+        <v>907.2140211642266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1704</v>
+      </c>
+      <c r="C58">
+        <v>907.6114231870713</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1751</v>
+      </c>
+      <c r="C59">
+        <v>908.2356697577287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>2098</v>
+      </c>
+      <c r="C60">
+        <v>908.68704355751</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2938</v>
+      </c>
+      <c r="C61">
+        <v>912.2278633892922</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3060</v>
+      </c>
+      <c r="C62">
+        <v>912.9703888050011</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3184</v>
+      </c>
+      <c r="C63">
+        <v>913.7047770466644</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3307</v>
+      </c>
+      <c r="C64">
+        <v>914.1728118450266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3430</v>
+      </c>
+      <c r="C65">
+        <v>914.8316749645336</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>762.0260016065749</v>
+        <v>1397.528150389182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>653.3675125278693</v>
+        <v>1551.173121818517</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>651.0722269029711</v>
+        <v>1530.527801428039</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>725.5396761226551</v>
+        <v>1416.937498208815</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>722.9800601682434</v>
+        <v>1411.876087204833</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>737.5102034685721</v>
+        <v>1380.959382710767</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>792.8724268292386</v>
+        <v>1294.047308086022</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>757.2559962447656</v>
+        <v>1341.021254713692</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>741.9277475497754</v>
+        <v>1362.879484263613</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>771.587115564909</v>
+        <v>1314.052484074679</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>772.9690252195054</v>
+        <v>1305.338538540757</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>759.4929473082601</v>
+        <v>1321.586462558755</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>764.4352321103387</v>
+        <v>1311.477870204247</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>767.2435970582648</v>
+        <v>1306.191350510799</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>785.0918971855637</v>
+        <v>1278.14633747203</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>797.6137422780472</v>
+        <v>1261.414924626947</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>814.3536812116325</v>
+        <v>1230.934146916329</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>808.0905683816031</v>
+        <v>1236.652382254011</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>808.5084822495592</v>
+        <v>1233.635855764303</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>813.5433464647734</v>
+        <v>1223.959023374688</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>821.1813231208121</v>
+        <v>1209.43629271808</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>829.6482876368749</v>
+        <v>1193.74676171502</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>837.8054432551796</v>
+        <v>1178.679177740949</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>842.1082801829405</v>
+        <v>1169.296754069848</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>846.9070709266058</v>
+        <v>1159.671040694144</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>851.3215329473134</v>
+        <v>1150.428482618038</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>858.6663139805717</v>
+        <v>1137.020365836294</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>862.4818024570712</v>
+        <v>1129.110785367038</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>864.5183178945804</v>
+        <v>1123.887709604254</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>869.6579489420042</v>
+        <v>1114.153154214592</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>872.1372286916162</v>
+        <v>1108.282335600008</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>874.5767923046266</v>
+        <v>1102.75255490766</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>876.6109888866946</v>
+        <v>1097.806806432677</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>878.0032223029144</v>
+        <v>1094.063075973706</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>879.1654766893142</v>
+        <v>1090.552839180692</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>880.8091001416551</v>
+        <v>1086.466195104219</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>881.2800794950615</v>
+        <v>1084.363847458136</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>882.4666734922326</v>
+        <v>1080.906383514768</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>884.3144757978428</v>
+        <v>1076.105202275746</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>885.7969222979544</v>
+        <v>1072.056951943679</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>885.189057912017</v>
+        <v>1071.620925971684</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>885.9960095789487</v>
+        <v>1068.428865162341</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>886.3204738185359</v>
+        <v>1066.666852495235</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>886.5197746052988</v>
+        <v>1064.963983419043</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>885.9763263699971</v>
+        <v>1064.400579256497</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>885.9178807241186</v>
+        <v>1063.02604946884</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>886.3031396784127</v>
+        <v>1060.639142081765</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>886.0770411222019</v>
+        <v>1060.038348490666</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>886.6862969310052</v>
+        <v>1057.840267100985</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>887.867251352814</v>
+        <v>1054.615982252871</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>889.2833314801951</v>
+        <v>1051.900917514836</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>892.3719697423448</v>
+        <v>1045.836962149216</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>895.3595654327406</v>
+        <v>1040.699890698216</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>900.4763411853967</v>
+        <v>1032.318108457608</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>905.3683085211705</v>
+        <v>1023.953178870718</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>907.2140211642266</v>
+        <v>1020.116562746809</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>907.6114231870713</v>
+        <v>1018.778608112614</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>908.2356697577287</v>
+        <v>1016.679883241167</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>2098</v>
       </c>
       <c r="C60">
-        <v>908.68704355751</v>
+        <v>1009.418890728808</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>2938</v>
       </c>
       <c r="C61">
-        <v>912.2278633892922</v>
+        <v>993.0143088973109</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>3060</v>
       </c>
       <c r="C62">
-        <v>912.9703888050011</v>
+        <v>992.7675703351734</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>3184</v>
       </c>
       <c r="C63">
-        <v>913.7047770466644</v>
+        <v>988.5348692387774</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>3307</v>
       </c>
       <c r="C64">
-        <v>914.1728118450266</v>
+        <v>987.222952048561</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>3430</v>
       </c>
       <c r="C65">
-        <v>914.8316749645336</v>
+        <v>987.9894054248828</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>1397.528150389182</v>
+        <v>1423.634542915053</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>1551.173121818517</v>
+        <v>1571.040212937525</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>1530.527801428039</v>
+        <v>1559.093043380422</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>1416.937498208815</v>
+        <v>1449.703934039648</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>1411.876087204833</v>
+        <v>1446.906377072232</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>1380.959382710767</v>
+        <v>1419.431552814099</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>1294.047308086022</v>
+        <v>1336.606502926552</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>1341.021254713692</v>
+        <v>1382.273267210077</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>1362.879484263613</v>
+        <v>1401.322065436084</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>1314.052484074679</v>
+        <v>1354.847459798858</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>1305.338538540757</v>
+        <v>1348.388858080751</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>1321.586462558755</v>
+        <v>1363.687312056716</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>1311.477870204247</v>
+        <v>1353.389188105791</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>1306.191350510799</v>
+        <v>1346.483021144484</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>1278.14633747203</v>
+        <v>1318.724169067753</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>1261.414924626947</v>
+        <v>1299.128641493841</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>1230.934146916329</v>
+        <v>1272.019449547579</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>1236.652382254011</v>
+        <v>1277.82174897606</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>1233.635855764303</v>
+        <v>1274.371438275579</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>1223.959023374688</v>
+        <v>1264.819362376879</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>1209.43629271808</v>
+        <v>1249.658422274535</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>1193.74676171502</v>
+        <v>1233.41148765066</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>1178.679177740949</v>
+        <v>1217.793156547686</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>1169.296754069848</v>
+        <v>1207.725347116329</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>1159.671040694144</v>
+        <v>1197.28210749781</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>1150.428482618038</v>
+        <v>1187.323709887944</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>1137.020365836294</v>
+        <v>1173.579190908214</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>1129.110785367038</v>
+        <v>1164.991612211841</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>1123.887709604254</v>
+        <v>1158.999473105604</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>1114.153154214592</v>
+        <v>1148.734789083394</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>1108.282335600008</v>
+        <v>1142.258602354507</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>1102.75255490766</v>
+        <v>1136.165697202429</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>1097.806806432677</v>
+        <v>1130.58398511956</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>1094.063075973706</v>
+        <v>1126.168521739079</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>1090.552839180692</v>
+        <v>1122.035801938925</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>1086.466195104219</v>
+        <v>1117.37621194663</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>1084.363847458136</v>
+        <v>1114.593978850609</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>1080.906383514768</v>
+        <v>1110.691980493739</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>1076.105202275746</v>
+        <v>1105.135606479957</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>1072.056951943679</v>
+        <v>1100.800437609961</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>1071.620925971684</v>
+        <v>1099.577742572855</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>1068.428865162341</v>
+        <v>1096.095585613077</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>1066.666852495235</v>
+        <v>1093.627903579919</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>1064.963983419043</v>
+        <v>1091.468802174811</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>1064.400579256497</v>
+        <v>1090.220435641887</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>1063.02604946884</v>
+        <v>1088.356404980839</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>1060.639142081765</v>
+        <v>1085.855816165715</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>1060.038348490666</v>
+        <v>1084.603518512472</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>1057.840267100985</v>
+        <v>1082.109415063703</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>1054.615982252871</v>
+        <v>1079.034156118763</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>1051.900917514836</v>
+        <v>1075.800249509706</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>1045.836962149216</v>
+        <v>1070.235660835417</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>1040.699890698216</v>
+        <v>1065.252175556308</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>1032.318108457608</v>
+        <v>1056.981261768786</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>1023.953178870718</v>
+        <v>1048.976162036141</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>1020.116562746809</v>
+        <v>1045.131567055102</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>1018.778608112614</v>
+        <v>1042.933755553088</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>1016.679883241167</v>
+        <v>1040.393183872723</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>2098</v>
       </c>
       <c r="C60">
-        <v>1009.418890728808</v>
+        <v>1029.997994659415</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>2938</v>
       </c>
       <c r="C61">
-        <v>993.0143088973109</v>
+        <v>1010.707575921699</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>3060</v>
       </c>
       <c r="C62">
-        <v>992.7675703351734</v>
+        <v>1008.525403170424</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>3184</v>
       </c>
       <c r="C63">
-        <v>988.5348692387774</v>
+        <v>1007.616789987065</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>3307</v>
       </c>
       <c r="C64">
-        <v>987.222952048561</v>
+        <v>1005.919432667368</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>3430</v>
       </c>
       <c r="C65">
-        <v>987.9894054248828</v>
+        <v>1004.834113027875</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>300.5</v>
+        <v>417.7</v>
       </c>
       <c r="C2">
-        <v>1423.634542915053</v>
+        <v>172.9223356603526</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>314.5</v>
+        <v>452.1</v>
       </c>
       <c r="C3">
-        <v>1571.040212937525</v>
+        <v>179.8775125676499</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>328.4</v>
+        <v>486.8</v>
       </c>
       <c r="C4">
-        <v>1559.093043380422</v>
+        <v>187.0712054670154</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>342</v>
+        <v>521.5</v>
       </c>
       <c r="C5">
-        <v>1449.703934039648</v>
+        <v>196.1604828293329</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="C6">
-        <v>1446.906377072232</v>
+        <v>201.3332423220771</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>369.6</v>
+        <v>563.5</v>
       </c>
       <c r="C7">
-        <v>1419.431552814099</v>
+        <v>202.746667482101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>383.5</v>
+        <v>588.4000000000001</v>
       </c>
       <c r="C8">
-        <v>1336.606502926552</v>
+        <v>205.6853695822092</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>397.5</v>
+        <v>614</v>
       </c>
       <c r="C9">
-        <v>1382.273267210077</v>
+        <v>209.8157910446208</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>411.1</v>
+        <v>639</v>
       </c>
       <c r="C10">
-        <v>1401.322065436084</v>
+        <v>213.2404170609448</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>425</v>
+        <v>664.6</v>
       </c>
       <c r="C11">
-        <v>1354.847459798858</v>
+        <v>216.8284979084945</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>439</v>
+        <v>689.5</v>
       </c>
       <c r="C12">
-        <v>1348.388858080751</v>
+        <v>219.1219777796238</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>452.6</v>
+        <v>715</v>
       </c>
       <c r="C13">
-        <v>1363.687312056716</v>
+        <v>222.2271918836949</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>466.6</v>
+        <v>740</v>
       </c>
       <c r="C14">
-        <v>1353.389188105791</v>
+        <v>224.7599262100719</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>480.5</v>
+        <v>765</v>
       </c>
       <c r="C15">
-        <v>1346.483021144484</v>
+        <v>227.0530012286054</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>494.1</v>
+        <v>790.5</v>
       </c>
       <c r="C16">
-        <v>1318.724169067753</v>
+        <v>228.8377327293034</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>508.3</v>
+        <v>816</v>
       </c>
       <c r="C17">
-        <v>1299.128641493841</v>
+        <v>230.9326625080654</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>522</v>
+        <v>841.3000000000001</v>
       </c>
       <c r="C18">
-        <v>1272.019449547579</v>
+        <v>233.2316340288854</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>535.5999999999999</v>
+        <v>866</v>
       </c>
       <c r="C19">
-        <v>1277.82174897606</v>
+        <v>235.401062521623</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>550</v>
+        <v>891.5999999999999</v>
       </c>
       <c r="C20">
-        <v>1274.371438275579</v>
+        <v>236.5797480587961</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>563.5</v>
+        <v>917</v>
       </c>
       <c r="C21">
-        <v>1264.819362376879</v>
+        <v>237.6494725515599</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>588.4000000000001</v>
+        <v>942.4</v>
       </c>
       <c r="C22">
-        <v>1249.658422274535</v>
+        <v>238.6115000786448</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>614</v>
+        <v>967.3000000000001</v>
       </c>
       <c r="C23">
-        <v>1233.41148765066</v>
+        <v>239.7056368849126</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>639</v>
+        <v>992.7</v>
       </c>
       <c r="C24">
-        <v>1217.793156547686</v>
+        <v>240.0157666038183</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>664.6</v>
+        <v>1018</v>
       </c>
       <c r="C25">
-        <v>1207.725347116329</v>
+        <v>241.1392687096114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>689.5</v>
+        <v>1060</v>
       </c>
       <c r="C26">
-        <v>1197.28210749781</v>
+        <v>243.2371206624317</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>715</v>
+        <v>1098</v>
       </c>
       <c r="C27">
-        <v>1187.323709887944</v>
+        <v>244.2737704310138</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>740</v>
+        <v>1138</v>
       </c>
       <c r="C28">
-        <v>1173.579190908214</v>
+        <v>244.7485876683197</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>765</v>
+        <v>1179</v>
       </c>
       <c r="C29">
-        <v>1164.991612211841</v>
+        <v>245.726020015824</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>790.5</v>
+        <v>1222</v>
       </c>
       <c r="C30">
-        <v>1158.999473105604</v>
+        <v>246.3788309232662</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>816</v>
+        <v>1266</v>
       </c>
       <c r="C31">
-        <v>1148.734789083394</v>
+        <v>247.2072181078921</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>841.3000000000001</v>
+        <v>1312</v>
       </c>
       <c r="C32">
-        <v>1142.258602354507</v>
+        <v>247.9495384923869</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>866</v>
+        <v>1358</v>
       </c>
       <c r="C33">
-        <v>1136.165697202429</v>
+        <v>248.8750928917316</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>891.5999999999999</v>
+        <v>1408</v>
       </c>
       <c r="C34">
-        <v>1130.58398511956</v>
+        <v>250.7583733196705</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>917</v>
+        <v>1459</v>
       </c>
       <c r="C35">
-        <v>1126.168521739079</v>
+        <v>252.3173103470278</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>942.4</v>
+        <v>1512</v>
       </c>
       <c r="C36">
-        <v>1122.035801938925</v>
+        <v>254.7296157771051</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>967.3000000000001</v>
+        <v>1566</v>
       </c>
       <c r="C37">
-        <v>1117.37621194663</v>
+        <v>257.2515014607202</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>992.7</v>
+        <v>1623</v>
       </c>
       <c r="C38">
-        <v>1114.593978850609</v>
+        <v>259.6047630719634</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1018</v>
+        <v>1682</v>
       </c>
       <c r="C39">
-        <v>1110.691980493739</v>
+        <v>260.0837600567063</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,285 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1055</v>
+        <v>1743</v>
       </c>
       <c r="C40">
-        <v>1105.135606479957</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>1083</v>
-      </c>
-      <c r="C41">
-        <v>1100.800437609961</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>1112</v>
-      </c>
-      <c r="C42">
-        <v>1099.577742572855</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>1143</v>
-      </c>
-      <c r="C43">
-        <v>1096.095585613077</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>1174</v>
-      </c>
-      <c r="C44">
-        <v>1093.627903579919</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>1205</v>
-      </c>
-      <c r="C45">
-        <v>1091.468802174811</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>1237</v>
-      </c>
-      <c r="C46">
-        <v>1090.220435641887</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>1271</v>
-      </c>
-      <c r="C47">
-        <v>1088.356404980839</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>1306</v>
-      </c>
-      <c r="C48">
-        <v>1085.855816165715</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1341</v>
-      </c>
-      <c r="C49">
-        <v>1084.603518512472</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>1377</v>
-      </c>
-      <c r="C50">
-        <v>1082.109415063703</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1414</v>
-      </c>
-      <c r="C51">
-        <v>1079.034156118763</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>1452</v>
-      </c>
-      <c r="C52">
-        <v>1075.800249509706</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>1492</v>
-      </c>
-      <c r="C53">
-        <v>1070.235660835417</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>1532</v>
-      </c>
-      <c r="C54">
-        <v>1065.252175556308</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>1573</v>
-      </c>
-      <c r="C55">
-        <v>1056.981261768786</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>1616</v>
-      </c>
-      <c r="C56">
-        <v>1048.976162036141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>1659</v>
-      </c>
-      <c r="C57">
-        <v>1045.131567055102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>1704</v>
-      </c>
-      <c r="C58">
-        <v>1042.933755553088</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>1751</v>
-      </c>
-      <c r="C59">
-        <v>1040.393183872723</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>2098</v>
-      </c>
-      <c r="C60">
-        <v>1029.997994659415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>2938</v>
-      </c>
-      <c r="C61">
-        <v>1010.707575921699</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>3060</v>
-      </c>
-      <c r="C62">
-        <v>1008.525403170424</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>3184</v>
-      </c>
-      <c r="C63">
-        <v>1007.616789987065</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>3307</v>
-      </c>
-      <c r="C64">
-        <v>1005.919432667368</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>3430</v>
-      </c>
-      <c r="C65">
-        <v>1004.834113027875</v>
+        <v>261.6057926809745</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>417.7</v>
+        <v>487</v>
       </c>
       <c r="C2">
-        <v>172.9223356603526</v>
+        <v>3006.210415930855</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>452.1</v>
+        <v>521.5</v>
       </c>
       <c r="C3">
-        <v>179.8775125676499</v>
+        <v>3122.75374257065</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>486.8</v>
+        <v>556</v>
       </c>
       <c r="C4">
-        <v>187.0712054670154</v>
+        <v>3213.907714275099</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>521.5</v>
+        <v>563.5</v>
       </c>
       <c r="C5">
-        <v>196.1604828293329</v>
+        <v>3234.517543281856</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>556</v>
+        <v>588.4000000000001</v>
       </c>
       <c r="C6">
-        <v>201.3332423220771</v>
+        <v>3285.13917760076</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>563.5</v>
+        <v>614</v>
       </c>
       <c r="C7">
-        <v>202.746667482101</v>
+        <v>3350.810677584692</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>588.4000000000001</v>
+        <v>639</v>
       </c>
       <c r="C8">
-        <v>205.6853695822092</v>
+        <v>3404.071384422558</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>614</v>
+        <v>664.6</v>
       </c>
       <c r="C9">
-        <v>209.8157910446208</v>
+        <v>3470.225607992594</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>639</v>
+        <v>689.5</v>
       </c>
       <c r="C10">
-        <v>213.2404170609448</v>
+        <v>3490.251698000324</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>664.6</v>
+        <v>715</v>
       </c>
       <c r="C11">
-        <v>216.8284979084945</v>
+        <v>3534.952545728332</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>689.5</v>
+        <v>740</v>
       </c>
       <c r="C12">
-        <v>219.1219777796238</v>
+        <v>3578.024204892727</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>715</v>
+        <v>765</v>
       </c>
       <c r="C13">
-        <v>222.2271918836949</v>
+        <v>3611.084670313791</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>740</v>
+        <v>790.5</v>
       </c>
       <c r="C14">
-        <v>224.7599262100719</v>
+        <v>3641.314205634405</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>765</v>
+        <v>816</v>
       </c>
       <c r="C15">
-        <v>227.0530012286054</v>
+        <v>3667.545725827392</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>790.5</v>
+        <v>841.3000000000001</v>
       </c>
       <c r="C16">
-        <v>228.8377327293034</v>
+        <v>3706.544659977329</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>816</v>
+        <v>866</v>
       </c>
       <c r="C17">
-        <v>230.9326625080654</v>
+        <v>3742.575393621661</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>841.3000000000001</v>
+        <v>891.5999999999999</v>
       </c>
       <c r="C18">
-        <v>233.2316340288854</v>
+        <v>3764.689259368348</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>866</v>
+        <v>917</v>
       </c>
       <c r="C19">
-        <v>235.401062521623</v>
+        <v>3773.044812974358</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>891.5999999999999</v>
+        <v>942.4</v>
       </c>
       <c r="C20">
-        <v>236.5797480587961</v>
+        <v>3786.569194062839</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>917</v>
+        <v>967.3000000000001</v>
       </c>
       <c r="C21">
-        <v>237.6494725515599</v>
+        <v>3809.527013501679</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>942.4</v>
+        <v>992.7</v>
       </c>
       <c r="C22">
-        <v>238.6115000786448</v>
+        <v>3805.918607533987</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>967.3000000000001</v>
+        <v>1018</v>
       </c>
       <c r="C23">
-        <v>239.7056368849126</v>
+        <v>3830.827968459016</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>992.7</v>
+        <v>1060</v>
       </c>
       <c r="C24">
-        <v>240.0157666038183</v>
+        <v>3854.926692295479</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1018</v>
+        <v>1098</v>
       </c>
       <c r="C25">
-        <v>241.1392687096114</v>
+        <v>3881.62053395058</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1060</v>
+        <v>1138</v>
       </c>
       <c r="C26">
-        <v>243.2371206624317</v>
+        <v>3888.234081323438</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1098</v>
+        <v>1179</v>
       </c>
       <c r="C27">
-        <v>244.2737704310138</v>
+        <v>3903.985939766485</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1138</v>
+        <v>1222</v>
       </c>
       <c r="C28">
-        <v>244.7485876683197</v>
+        <v>3912.896817381828</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1179</v>
+        <v>1266</v>
       </c>
       <c r="C29">
-        <v>245.726020015824</v>
+        <v>3938.244264748203</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1222</v>
+        <v>1312</v>
       </c>
       <c r="C30">
-        <v>246.3788309232662</v>
+        <v>3945.988381754528</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1266</v>
+        <v>1358</v>
       </c>
       <c r="C31">
-        <v>247.2072181078921</v>
+        <v>3967.585485956326</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1312</v>
+        <v>1408</v>
       </c>
       <c r="C32">
-        <v>247.9495384923869</v>
+        <v>3988.993427197718</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1358</v>
+        <v>1459</v>
       </c>
       <c r="C33">
-        <v>248.8750928917316</v>
+        <v>4015.226351393619</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1408</v>
+        <v>1512</v>
       </c>
       <c r="C34">
-        <v>250.7583733196705</v>
+        <v>4051.117433016005</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1459</v>
+        <v>1566</v>
       </c>
       <c r="C35">
-        <v>252.3173103470278</v>
+        <v>4082.703690615808</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1512</v>
+        <v>1623</v>
       </c>
       <c r="C36">
-        <v>254.7296157771051</v>
+        <v>4118.237716053241</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1566</v>
+        <v>1682</v>
       </c>
       <c r="C37">
-        <v>257.2515014607202</v>
+        <v>4115.797461375359</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,32 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1623</v>
+        <v>1743</v>
       </c>
       <c r="C38">
-        <v>259.6047630719634</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>1682</v>
-      </c>
-      <c r="C39">
-        <v>260.0837600567063</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>1743</v>
-      </c>
-      <c r="C40">
-        <v>261.6057926809745</v>
+        <v>4153.675509805832</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>487</v>
+        <v>417.7</v>
       </c>
       <c r="C2">
-        <v>3006.210415930855</v>
+        <v>386.146387001185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>521.5</v>
+        <v>452.1</v>
       </c>
       <c r="C3">
-        <v>3122.75374257065</v>
+        <v>378.795218929251</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>556</v>
+        <v>486.8</v>
       </c>
       <c r="C4">
-        <v>3213.907714275099</v>
+        <v>372.4852733461015</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>563.5</v>
+        <v>521.5</v>
       </c>
       <c r="C5">
-        <v>3234.517543281856</v>
+        <v>365.9174556086553</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>588.4000000000001</v>
+        <v>556</v>
       </c>
       <c r="C6">
-        <v>3285.13917760076</v>
+        <v>361.2590276644845</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>614</v>
+        <v>563.5</v>
       </c>
       <c r="C7">
-        <v>3350.810677584692</v>
+        <v>360.0819999357574</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>639</v>
+        <v>588.4000000000001</v>
       </c>
       <c r="C8">
-        <v>3404.071384422558</v>
+        <v>357.6899955828328</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>664.6</v>
+        <v>614</v>
       </c>
       <c r="C9">
-        <v>3470.225607992594</v>
+        <v>354.5517546411636</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>689.5</v>
+        <v>639</v>
       </c>
       <c r="C10">
-        <v>3490.251698000324</v>
+        <v>351.9624390873055</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>715</v>
+        <v>664.6</v>
       </c>
       <c r="C11">
-        <v>3534.952545728332</v>
+        <v>349.0976216976582</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>740</v>
+        <v>689.5</v>
       </c>
       <c r="C12">
-        <v>3578.024204892727</v>
+        <v>347.5243402529804</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>765</v>
+        <v>715</v>
       </c>
       <c r="C13">
-        <v>3611.084670313791</v>
+        <v>345.2350332250331</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>790.5</v>
+        <v>740</v>
       </c>
       <c r="C14">
-        <v>3641.314205634405</v>
+        <v>343.3188470134407</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>816</v>
+        <v>765</v>
       </c>
       <c r="C15">
-        <v>3667.545725827392</v>
+        <v>341.5650832514494</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>841.3000000000001</v>
+        <v>790.5</v>
       </c>
       <c r="C16">
-        <v>3706.544659977329</v>
+        <v>340.2582769739259</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>866</v>
+        <v>816</v>
       </c>
       <c r="C17">
-        <v>3742.575393621661</v>
+        <v>338.746861401007</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>891.5999999999999</v>
+        <v>841.3000000000001</v>
       </c>
       <c r="C18">
-        <v>3764.689259368348</v>
+        <v>337.01199303382</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>917</v>
+        <v>866</v>
       </c>
       <c r="C19">
-        <v>3773.044812974358</v>
+        <v>335.3928283401642</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>942.4</v>
+        <v>891.5999999999999</v>
       </c>
       <c r="C20">
-        <v>3786.569194062839</v>
+        <v>334.4406919724152</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>967.3000000000001</v>
+        <v>917</v>
       </c>
       <c r="C21">
-        <v>3809.527013501679</v>
+        <v>333.6484009438534</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>992.7</v>
+        <v>942.4</v>
       </c>
       <c r="C22">
-        <v>3805.918607533987</v>
+        <v>332.9635450431967</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1018</v>
+        <v>967.3000000000001</v>
       </c>
       <c r="C23">
-        <v>3830.827968459016</v>
+        <v>332.0792992030919</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1060</v>
+        <v>992.7</v>
       </c>
       <c r="C24">
-        <v>3854.926692295479</v>
+        <v>331.8855227337769</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1098</v>
+        <v>1018</v>
       </c>
       <c r="C25">
-        <v>3881.62053395058</v>
+        <v>331.0146621335886</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1138</v>
+        <v>1060</v>
       </c>
       <c r="C26">
-        <v>3888.234081323438</v>
+        <v>329.4586268876021</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1179</v>
+        <v>1098</v>
       </c>
       <c r="C27">
-        <v>3903.985939766485</v>
+        <v>328.6091423968518</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1222</v>
+        <v>1138</v>
       </c>
       <c r="C28">
-        <v>3912.896817381828</v>
+        <v>328.2417248821057</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1266</v>
+        <v>1179</v>
       </c>
       <c r="C29">
-        <v>3938.244264748203</v>
+        <v>327.4590579752656</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1312</v>
+        <v>1222</v>
       </c>
       <c r="C30">
-        <v>3945.988381754528</v>
+        <v>326.8927466910654</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1358</v>
+        <v>1266</v>
       </c>
       <c r="C31">
-        <v>3967.585485956326</v>
+        <v>326.1544314673292</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1408</v>
+        <v>1312</v>
       </c>
       <c r="C32">
-        <v>3988.993427197718</v>
+        <v>325.6030551689326</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1459</v>
+        <v>1358</v>
       </c>
       <c r="C33">
-        <v>4015.226351393619</v>
+        <v>324.8307467522693</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1512</v>
+        <v>1408</v>
       </c>
       <c r="C34">
-        <v>4051.117433016005</v>
+        <v>323.3997282622303</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1566</v>
+        <v>1459</v>
       </c>
       <c r="C35">
-        <v>4082.703690615808</v>
+        <v>322.2521987418236</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1623</v>
+        <v>1512</v>
       </c>
       <c r="C36">
-        <v>4118.237716053241</v>
+        <v>320.5516136163267</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1682</v>
+        <v>1566</v>
       </c>
       <c r="C37">
-        <v>4115.797461375359</v>
+        <v>318.8058571090835</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,32 @@
         <v>36</v>
       </c>
       <c r="B38">
+        <v>1623</v>
+      </c>
+      <c r="C38">
+        <v>317.1814621512059</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1682</v>
+      </c>
+      <c r="C39">
+        <v>316.8743183339373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
         <v>1743</v>
       </c>
-      <c r="C38">
-        <v>4153.675509805832</v>
+      <c r="C40">
+        <v>315.8021888031159</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>417.7</v>
       </c>
       <c r="C2">
-        <v>386.146387001185</v>
+        <v>458.9641623014007</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>452.1</v>
       </c>
       <c r="C3">
-        <v>378.795218929251</v>
+        <v>444.7381893212254</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>486.8</v>
       </c>
       <c r="C4">
-        <v>372.4852733461015</v>
+        <v>433.2888499102294</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>521.5</v>
       </c>
       <c r="C5">
-        <v>365.9174556086553</v>
+        <v>422.6102605108251</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>556</v>
       </c>
       <c r="C6">
-        <v>361.2590276644845</v>
+        <v>414.2015291858092</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>563.5</v>
       </c>
       <c r="C7">
-        <v>360.0819999357574</v>
+        <v>412.1733521129656</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C8">
-        <v>357.6899955828328</v>
+        <v>407.9224020274719</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>614</v>
       </c>
       <c r="C9">
-        <v>354.5517546411636</v>
+        <v>402.6815624484925</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>639</v>
       </c>
       <c r="C10">
-        <v>351.9624390873055</v>
+        <v>398.3306319982338</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>664.6</v>
       </c>
       <c r="C11">
-        <v>349.0976216976582</v>
+        <v>393.4731582523332</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>689.5</v>
       </c>
       <c r="C12">
-        <v>347.5243402529804</v>
+        <v>390.8208875478269</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>715</v>
       </c>
       <c r="C13">
-        <v>345.2350332250331</v>
+        <v>387.0440299942323</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>740</v>
       </c>
       <c r="C14">
-        <v>343.3188470134407</v>
+        <v>383.8138206382347</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>765</v>
       </c>
       <c r="C15">
-        <v>341.5650832514494</v>
+        <v>380.8462597556517</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>790.5</v>
       </c>
       <c r="C16">
-        <v>340.2582769739259</v>
+        <v>378.583911843644</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>816</v>
       </c>
       <c r="C17">
-        <v>338.746861401007</v>
+        <v>376.0607666801752</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C18">
-        <v>337.01199303382</v>
+        <v>373.1232408176188</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>866</v>
       </c>
       <c r="C19">
-        <v>335.3928283401642</v>
+        <v>370.4140070047712</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C20">
-        <v>334.4406919724152</v>
+        <v>368.6298216359907</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>917</v>
       </c>
       <c r="C21">
-        <v>333.6484009438534</v>
+        <v>367.178974832183</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>942.4</v>
       </c>
       <c r="C22">
-        <v>332.9635450431967</v>
+        <v>365.9181150111879</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C23">
-        <v>332.0792992030919</v>
+        <v>364.2675361645864</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>992.7</v>
       </c>
       <c r="C24">
-        <v>331.8855227337769</v>
+        <v>363.7751371474707</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>1018</v>
       </c>
       <c r="C25">
-        <v>331.0146621335886</v>
+        <v>362.1991250132295</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>1060</v>
       </c>
       <c r="C26">
-        <v>329.4586268876021</v>
+        <v>359.5244733693992</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>1098</v>
       </c>
       <c r="C27">
-        <v>328.6091423968518</v>
+        <v>357.8570940069303</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>1138</v>
       </c>
       <c r="C28">
-        <v>328.2417248821057</v>
+        <v>356.9885858881738</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>1179</v>
       </c>
       <c r="C29">
-        <v>327.4590579752656</v>
+        <v>355.484183891086</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>1222</v>
       </c>
       <c r="C30">
-        <v>326.8927466910654</v>
+        <v>354.2670897417333</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>1266</v>
       </c>
       <c r="C31">
-        <v>326.1544314673292</v>
+        <v>352.7636498794618</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>1312</v>
       </c>
       <c r="C32">
-        <v>325.6030551689326</v>
+        <v>351.6515783736907</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>1358</v>
       </c>
       <c r="C33">
-        <v>324.8307467522693</v>
+        <v>350.1827675570501</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>1408</v>
       </c>
       <c r="C34">
-        <v>323.3997282622303</v>
+        <v>347.7843717570872</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>1459</v>
       </c>
       <c r="C35">
-        <v>322.2521987418236</v>
+        <v>345.8234780148173</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>1512</v>
       </c>
       <c r="C36">
-        <v>320.5516136163267</v>
+        <v>343.1396266793118</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>1566</v>
       </c>
       <c r="C37">
-        <v>318.8058571090835</v>
+        <v>340.4581930414041</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>1623</v>
       </c>
       <c r="C38">
-        <v>317.1814621512059</v>
+        <v>337.988097639852</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1682</v>
       </c>
       <c r="C39">
-        <v>316.8743183339373</v>
+        <v>337.3428477531082</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1743</v>
       </c>
       <c r="C40">
-        <v>315.8021888031159</v>
+        <v>335.6845864137537</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>417.7</v>
+        <v>300.5</v>
       </c>
       <c r="C2">
-        <v>458.9641623014007</v>
+        <v>1286.325054163595</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>452.1</v>
+        <v>314.5</v>
       </c>
       <c r="C3">
-        <v>444.7381893212254</v>
+        <v>1387.585263540658</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>486.8</v>
+        <v>328.4</v>
       </c>
       <c r="C4">
-        <v>433.2888499102294</v>
+        <v>1388.219887868081</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>521.5</v>
+        <v>342</v>
       </c>
       <c r="C5">
-        <v>422.6102605108251</v>
+        <v>1313.174334270473</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>556</v>
+        <v>356</v>
       </c>
       <c r="C6">
-        <v>414.2015291858092</v>
+        <v>1314.210869104438</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>563.5</v>
+        <v>369.6</v>
       </c>
       <c r="C7">
-        <v>412.1733521129656</v>
+        <v>1297.984493447424</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>588.4000000000001</v>
+        <v>383.5</v>
       </c>
       <c r="C8">
-        <v>407.9224020274719</v>
+        <v>1240.328542772451</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>614</v>
+        <v>397.5</v>
       </c>
       <c r="C9">
-        <v>402.6815624484925</v>
+        <v>1274.62874640516</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>639</v>
+        <v>411.1</v>
       </c>
       <c r="C10">
-        <v>398.3306319982338</v>
+        <v>1287.356195461942</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>664.6</v>
+        <v>425</v>
       </c>
       <c r="C11">
-        <v>393.4731582523332</v>
+        <v>1255.206374696227</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>689.5</v>
+        <v>439</v>
       </c>
       <c r="C12">
-        <v>390.8208875478269</v>
+        <v>1253.521922802814</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>715</v>
+        <v>452.6</v>
       </c>
       <c r="C13">
-        <v>387.0440299942323</v>
+        <v>1265.287751345156</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>740</v>
+        <v>466.6</v>
       </c>
       <c r="C14">
-        <v>383.8138206382347</v>
+        <v>1258.144880778245</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>765</v>
+        <v>480.5</v>
       </c>
       <c r="C15">
-        <v>380.8462597556517</v>
+        <v>1252.206026667091</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>790.5</v>
+        <v>494.1</v>
       </c>
       <c r="C16">
-        <v>378.583911843644</v>
+        <v>1231.983541413073</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>816</v>
+        <v>508.3</v>
       </c>
       <c r="C17">
-        <v>376.0607666801752</v>
+        <v>1214.794464125535</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>841.3000000000001</v>
+        <v>522</v>
       </c>
       <c r="C18">
-        <v>373.1232408176188</v>
+        <v>1197.800096628066</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>866</v>
+        <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>370.4140070047712</v>
+        <v>1203.324425590679</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>891.5999999999999</v>
+        <v>550</v>
       </c>
       <c r="C20">
-        <v>368.6298216359907</v>
+        <v>1201.099926857574</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>917</v>
+        <v>563.5</v>
       </c>
       <c r="C21">
-        <v>367.178974832183</v>
+        <v>1194.547499976051</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>942.4</v>
+        <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>365.9181150111879</v>
+        <v>1183.376163820804</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>967.3000000000001</v>
+        <v>614</v>
       </c>
       <c r="C23">
-        <v>364.2675361645864</v>
+        <v>1171.316112122178</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>992.7</v>
+        <v>639</v>
       </c>
       <c r="C24">
-        <v>363.7751371474707</v>
+        <v>1159.563524084417</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1018</v>
+        <v>664.6</v>
       </c>
       <c r="C25">
-        <v>362.1991250132295</v>
+        <v>1152.104421938693</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1060</v>
+        <v>689.5</v>
       </c>
       <c r="C26">
-        <v>359.5244733693992</v>
+        <v>1144.079108524987</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1098</v>
+        <v>715</v>
       </c>
       <c r="C27">
-        <v>357.8570940069303</v>
+        <v>1136.507199583914</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1138</v>
+        <v>740</v>
       </c>
       <c r="C28">
-        <v>356.9885858881738</v>
+        <v>1126.037026187077</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1179</v>
+        <v>765</v>
       </c>
       <c r="C29">
-        <v>355.484183891086</v>
+        <v>1119.440244409353</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1222</v>
+        <v>790.5</v>
       </c>
       <c r="C30">
-        <v>354.2670897417333</v>
+        <v>1114.801192131254</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1266</v>
+        <v>816</v>
       </c>
       <c r="C31">
-        <v>352.7636498794618</v>
+        <v>1106.821890121568</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1312</v>
+        <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>351.6515783736907</v>
+        <v>1101.808564126561</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1358</v>
+        <v>866</v>
       </c>
       <c r="C33">
-        <v>350.1827675570501</v>
+        <v>1097.065625376592</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1408</v>
+        <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>347.7843717570872</v>
+        <v>1092.681064650547</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1459</v>
+        <v>917</v>
       </c>
       <c r="C35">
-        <v>345.8234780148173</v>
+        <v>1089.195127985665</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1512</v>
+        <v>942.4</v>
       </c>
       <c r="C36">
-        <v>343.1396266793118</v>
+        <v>1085.922068835843</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1566</v>
+        <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>340.4581930414041</v>
+        <v>1082.231348988438</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1623</v>
+        <v>992.7</v>
       </c>
       <c r="C38">
-        <v>337.988097639852</v>
+        <v>1079.942752003959</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1682</v>
+        <v>1018</v>
       </c>
       <c r="C39">
-        <v>337.3428477531082</v>
+        <v>1076.934469005364</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,285 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1743</v>
+        <v>1055</v>
       </c>
       <c r="C40">
-        <v>335.6845864137537</v>
+        <v>1072.551357663376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1083</v>
+      </c>
+      <c r="C41">
+        <v>1069.264431987182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1112</v>
+      </c>
+      <c r="C42">
+        <v>1068.16886523331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1143</v>
+      </c>
+      <c r="C43">
+        <v>1065.518514048347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1174</v>
+      </c>
+      <c r="C44">
+        <v>1063.557810551563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1205</v>
+      </c>
+      <c r="C45">
+        <v>1061.856831837793</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1237</v>
+      </c>
+      <c r="C46">
+        <v>1060.902528467134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1271</v>
+      </c>
+      <c r="C47">
+        <v>1059.488297040834</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1306</v>
+      </c>
+      <c r="C48">
+        <v>1057.664572052364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1341</v>
+      </c>
+      <c r="C49">
+        <v>1056.757112178675</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1377</v>
+      </c>
+      <c r="C50">
+        <v>1055.009178883237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1414</v>
+      </c>
+      <c r="C51">
+        <v>1052.863616609057</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1452</v>
+      </c>
+      <c r="C52">
+        <v>1050.614807248329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1492</v>
+      </c>
+      <c r="C53">
+        <v>1046.599689082828</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1532</v>
+      </c>
+      <c r="C54">
+        <v>1042.923574288368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1573</v>
+      </c>
+      <c r="C55">
+        <v>1036.73734642884</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1616</v>
+      </c>
+      <c r="C56">
+        <v>1030.468526226347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1659</v>
+      </c>
+      <c r="C57">
+        <v>1027.255331759957</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1704</v>
+      </c>
+      <c r="C58">
+        <v>1025.402590826507</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1751</v>
+      </c>
+      <c r="C59">
+        <v>1023.336814753306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>2098</v>
+      </c>
+      <c r="C60">
+        <v>1013.934321596799</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2938</v>
+      </c>
+      <c r="C61">
+        <v>997.591953783572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3060</v>
+      </c>
+      <c r="C62">
+        <v>995.7517900686108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3184</v>
+      </c>
+      <c r="C63">
+        <v>994.1179014187895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3307</v>
+      </c>
+      <c r="C64">
+        <v>991.2724557802344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3430</v>
+      </c>
+      <c r="C65">
+        <v>989.0735934776628</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>1286.325054163595</v>
+        <v>656.6310342721592</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>1387.585263540658</v>
+        <v>554.3834728378716</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>1388.219887868081</v>
+        <v>554.2737198578341</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>1313.174334270473</v>
+        <v>626.0346221782509</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>1314.210869104438</v>
+        <v>624.95042417543</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>1297.984493447424</v>
+        <v>640.3493814850502</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>1240.328542772451</v>
+        <v>695.4750411678478</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>1274.62874640516</v>
+        <v>661.9225495763103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>1287.356195461942</v>
+        <v>647.9990654226775</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>1255.206374696227</v>
+        <v>678.0768024284845</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>1253.521922802814</v>
+        <v>680.7148198624269</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>1265.287751345156</v>
+        <v>668.6534341868721</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>1258.144880778245</v>
+        <v>674.5582942518924</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>1252.206026667091</v>
+        <v>678.298759601792</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>1231.983541413073</v>
+        <v>696.7963625196249</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>1214.794464125535</v>
+        <v>709.9960680821971</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>1197.800096628066</v>
+        <v>727.7304293279441</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>1203.324425590679</v>
+        <v>722.5783429246624</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>1201.099926857574</v>
+        <v>724.0325490375233</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>1194.547499976051</v>
+        <v>729.9840552875692</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>1183.376163820804</v>
+        <v>739.2722755696913</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>1171.316112122178</v>
+        <v>749.4004912241836</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>1159.563524084417</v>
+        <v>759.1525413327415</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>1152.104421938693</v>
+        <v>765.0527908709126</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>1144.079108524987</v>
+        <v>771.3462583190944</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>1136.507199583914</v>
+        <v>777.2554163424372</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>1126.037026187077</v>
+        <v>786.0317567379705</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>1119.440244409353</v>
+        <v>791.2119179973587</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>1114.801192131254</v>
+        <v>794.5813229389697</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>1106.821890121568</v>
+        <v>801.0297373062248</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>1101.808564126561</v>
+        <v>804.7532427156723</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>1097.065625376592</v>
+        <v>808.3557613749459</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>1092.681064650547</v>
+        <v>811.5521788139013</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>1089.195127985665</v>
+        <v>814.0400577695273</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>1085.922068835843</v>
+        <v>816.2662377425578</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>1082.231348988438</v>
+        <v>818.9181048419148</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>1079.942752003959</v>
+        <v>820.3558913222331</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>1076.934469005364</v>
+        <v>822.4947884886146</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>1072.551357663376</v>
+        <v>825.6635991585881</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>1069.264431987182</v>
+        <v>828.1119404613956</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>1068.16886523331</v>
+        <v>828.4245631856591</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>1065.518514048347</v>
+        <v>830.2095209026251</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>1063.557810551563</v>
+        <v>831.4478019559867</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>1061.856831837793</v>
+        <v>832.5191975615543</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>1060.902528467134</v>
+        <v>832.8385203089094</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>1059.488297040834</v>
+        <v>833.6572875459192</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>1057.664572052364</v>
+        <v>834.914545806753</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>1056.757112178675</v>
+        <v>835.4956584563089</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>1055.009178883237</v>
+        <v>836.9161561460058</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>1052.863616609057</v>
+        <v>838.8917674043705</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>1050.614807248329</v>
+        <v>841.0826576311647</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>1046.599689082828</v>
+        <v>844.969708357901</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>1042.923574288368</v>
+        <v>848.6991714512504</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>1036.73734642884</v>
+        <v>854.5857068447127</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>1030.468526226347</v>
+        <v>860.2415293835763</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>1027.255331759957</v>
+        <v>862.7794304039149</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>1025.402590826507</v>
+        <v>863.8642467567737</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>1023.336814753306</v>
+        <v>865.1766039801112</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>2098</v>
       </c>
       <c r="C60">
-        <v>1013.934321596799</v>
+        <v>869.6882321698185</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>2938</v>
       </c>
       <c r="C61">
-        <v>997.591953783572</v>
+        <v>879.0786329866407</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>3060</v>
       </c>
       <c r="C62">
-        <v>995.7517900686108</v>
+        <v>880.3908458218101</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>3184</v>
       </c>
       <c r="C63">
-        <v>994.1179014187895</v>
+        <v>881.6740978919713</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>3307</v>
       </c>
       <c r="C64">
-        <v>991.2724557802344</v>
+        <v>882.637016271448</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>3430</v>
       </c>
       <c r="C65">
-        <v>989.0735934776628</v>
+        <v>883.747866377127</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>656.6310342721592</v>
+        <v>698.342243854011</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>554.3834728378716</v>
+        <v>593.6769593554159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>554.2737198578341</v>
+        <v>593.0411156351845</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>626.0346221782509</v>
+        <v>666.4419341200212</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>624.95042417543</v>
+        <v>665.1522464695691</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>640.3493814850502</v>
+        <v>680.6202059079781</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>695.4750411678478</v>
+        <v>736.3712711970783</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>661.9225495763103</v>
+        <v>702.319849793187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>647.9990654226775</v>
+        <v>688.2115340245409</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>678.0768024284845</v>
+        <v>718.6013598591279</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>680.7148198624269</v>
+        <v>721.1324989108148</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>668.6534341868721</v>
+        <v>708.8691411460957</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>674.5582942518924</v>
+        <v>714.8109949277615</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>678.298759601792</v>
+        <v>718.6004537045321</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>696.7963625196249</v>
+        <v>737.2757459551682</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>709.9960680821971</v>
+        <v>750.6694883916421</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>727.7304293279441</v>
+        <v>768.3922218387762</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>722.5783429246624</v>
+        <v>763.1498285415316</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>724.0325490375233</v>
+        <v>764.5814621501934</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>729.9840552875692</v>
+        <v>770.5334982478496</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>739.2722755696913</v>
+        <v>779.8273020018787</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>749.4004912241836</v>
+        <v>789.9509190403276</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>759.1525413327415</v>
+        <v>799.6833002618109</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>765.0527908709126</v>
+        <v>805.5469223620104</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>771.3462583190944</v>
+        <v>811.8072862606241</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>777.2554163424372</v>
+        <v>817.6684168161863</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>786.0317567379705</v>
+        <v>826.3841619271517</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>791.2119179973587</v>
+        <v>831.5088430658202</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>794.5813229389697</v>
+        <v>834.8227068875058</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>801.0297373062248</v>
+        <v>841.1974692998924</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>804.7532427156723</v>
+        <v>844.8471400407387</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>808.3557613749459</v>
+        <v>848.3788786642909</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>811.5521788139013</v>
+        <v>851.4976800779727</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>814.0400577695273</v>
+        <v>853.9148473436509</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>816.2662377425578</v>
+        <v>856.0605157041934</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>818.9181048419148</v>
+        <v>858.6283344400591</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>820.3558913222331</v>
+        <v>859.9942350322465</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>822.4947884886146</v>
+        <v>862.0399480187002</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>825.6635991585881</v>
+        <v>865.0750422755093</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>828.1119404613956</v>
+        <v>867.4083611793782</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>828.4245631856591</v>
+        <v>867.6301866678004</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>830.2095209026251</v>
+        <v>869.2860803497515</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>831.4478019559867</v>
+        <v>870.4101049136215</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>832.5191975615543</v>
+        <v>871.3663389674498</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>832.8385203089094</v>
+        <v>871.5631265351353</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>833.6572875459192</v>
+        <v>872.2474665332492</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>834.914545806753</v>
+        <v>873.3546947625737</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>835.4956584563089</v>
+        <v>873.8045907060732</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>836.9161561460058</v>
+        <v>875.0707375694278</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>838.8917674043705</v>
+        <v>876.8854149621142</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>841.0826576311647</v>
+        <v>878.911688527273</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>844.969708357901</v>
+        <v>882.6043870351352</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>848.6991714512504</v>
+        <v>886.1543106184478</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>854.5857068447127</v>
+        <v>891.8155747982271</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>860.2415293835763</v>
+        <v>897.2423174790079</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>862.7794304039149</v>
+        <v>899.5856096751797</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>863.8642467567737</v>
+        <v>900.4707647216615</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>865.1766039801112</v>
+        <v>901.5686295065217</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>2098</v>
       </c>
       <c r="C60">
-        <v>869.6882321698185</v>
+        <v>904.656407209603</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>2938</v>
       </c>
       <c r="C61">
-        <v>879.0786329866407</v>
+        <v>911.2034788496537</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>3060</v>
       </c>
       <c r="C62">
-        <v>880.3908458218101</v>
+        <v>912.1673648400108</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>3184</v>
       </c>
       <c r="C63">
-        <v>881.6740978919713</v>
+        <v>913.1174061474123</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>3307</v>
       </c>
       <c r="C64">
-        <v>882.637016271448</v>
+        <v>913.7790811927226</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>3430</v>
       </c>
       <c r="C65">
-        <v>883.747866377127</v>
+        <v>914.6378137127042</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -399,7 +399,7 @@
         <v>300.5</v>
       </c>
       <c r="C2">
-        <v>698.342243854011</v>
+        <v>1019.818874306688</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>314.5</v>
       </c>
       <c r="C3">
-        <v>593.6769593554159</v>
+        <v>993.0322683882054</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>328.4</v>
       </c>
       <c r="C4">
-        <v>593.0411156351845</v>
+        <v>1005.216874844783</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>342</v>
       </c>
       <c r="C5">
-        <v>666.4419341200212</v>
+        <v>1021.007972662469</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>356</v>
       </c>
       <c r="C6">
-        <v>665.1522464695691</v>
+        <v>1024.834302470246</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>369.6</v>
       </c>
       <c r="C7">
-        <v>680.6202059079781</v>
+        <v>1031.341892657855</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>383.5</v>
       </c>
       <c r="C8">
-        <v>736.3712711970783</v>
+        <v>1041.3848976627</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>397.5</v>
       </c>
       <c r="C9">
-        <v>702.319849793187</v>
+        <v>1038.21761213041</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>411.1</v>
       </c>
       <c r="C10">
-        <v>688.2115340245409</v>
+        <v>1033.794401743227</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>425</v>
       </c>
       <c r="C11">
-        <v>718.6013598591279</v>
+        <v>1039.003312756637</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>439</v>
       </c>
       <c r="C12">
-        <v>721.1324989108148</v>
+        <v>1044.109636529123</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>452.6</v>
       </c>
       <c r="C13">
-        <v>708.8691411460957</v>
+        <v>1042.986982193184</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>466.6</v>
       </c>
       <c r="C14">
-        <v>714.8109949277615</v>
+        <v>1043.469777271211</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>480.5</v>
       </c>
       <c r="C15">
-        <v>718.6004537045321</v>
+        <v>1041.229210730021</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>494.1</v>
       </c>
       <c r="C16">
-        <v>737.2757459551682</v>
+        <v>1042.584822950721</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>508.3</v>
       </c>
       <c r="C17">
-        <v>750.6694883916421</v>
+        <v>1037.664461810195</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>522</v>
       </c>
       <c r="C18">
-        <v>768.3922218387762</v>
+        <v>1044.195402046921</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>763.1498285415316</v>
+        <v>1045.554744999677</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>550</v>
       </c>
       <c r="C20">
-        <v>764.5814621501934</v>
+        <v>1045.60244847629</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>563.5</v>
       </c>
       <c r="C21">
-        <v>770.5334982478496</v>
+        <v>1046.503106510221</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>779.8273020018787</v>
+        <v>1046.217385498926</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>614</v>
       </c>
       <c r="C23">
-        <v>789.9509190403276</v>
+        <v>1045.808824293615</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>639</v>
       </c>
       <c r="C24">
-        <v>799.6833002618109</v>
+        <v>1045.141953470607</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>664.6</v>
       </c>
       <c r="C25">
-        <v>805.5469223620104</v>
+        <v>1044.590254513755</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>689.5</v>
       </c>
       <c r="C26">
-        <v>811.8072862606241</v>
+        <v>1043.594981281037</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>715</v>
       </c>
       <c r="C27">
-        <v>817.6684168161863</v>
+        <v>1042.660623550184</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>740</v>
       </c>
       <c r="C28">
-        <v>826.3841619271517</v>
+        <v>1041.897366624411</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>765</v>
       </c>
       <c r="C29">
-        <v>831.5088430658202</v>
+        <v>1041.058522124883</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>790.5</v>
       </c>
       <c r="C30">
-        <v>834.8227068875058</v>
+        <v>1040.190002823183</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>816</v>
       </c>
       <c r="C31">
-        <v>841.1974692998924</v>
+        <v>1039.191022892516</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>844.8471400407387</v>
+        <v>1038.290798009989</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>866</v>
       </c>
       <c r="C33">
-        <v>848.3788786642909</v>
+        <v>1037.499605958114</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>851.4976800779727</v>
+        <v>1036.608961371366</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>917</v>
       </c>
       <c r="C35">
-        <v>853.9148473436509</v>
+        <v>1035.803462762885</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>942.4</v>
       </c>
       <c r="C36">
-        <v>856.0605157041934</v>
+        <v>1034.985294089741</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>858.6283344400591</v>
+        <v>1034.133429667738</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>992.7</v>
       </c>
       <c r="C38">
-        <v>859.9942350322465</v>
+        <v>1033.328944796685</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>1018</v>
       </c>
       <c r="C39">
-        <v>862.0399480187002</v>
+        <v>1032.692957783854</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>1055</v>
       </c>
       <c r="C40">
-        <v>865.0750422755093</v>
+        <v>1031.745839465081</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1083</v>
       </c>
       <c r="C41">
-        <v>867.4083611793782</v>
+        <v>1031.204667379715</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>1112</v>
       </c>
       <c r="C42">
-        <v>867.6301866678004</v>
+        <v>1030.417902951775</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>1143</v>
       </c>
       <c r="C43">
-        <v>869.2860803497515</v>
+        <v>1029.777211583927</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>1174</v>
       </c>
       <c r="C44">
-        <v>870.4101049136215</v>
+        <v>1029.179597094809</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>1205</v>
       </c>
       <c r="C45">
-        <v>871.3663389674498</v>
+        <v>1028.712653378894</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1237</v>
       </c>
       <c r="C46">
-        <v>871.5631265351353</v>
+        <v>1028.226592689419</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1271</v>
       </c>
       <c r="C47">
-        <v>872.2474665332492</v>
+        <v>1027.832577689014</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1306</v>
       </c>
       <c r="C48">
-        <v>873.3546947625737</v>
+        <v>1027.500654401603</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1341</v>
       </c>
       <c r="C49">
-        <v>873.8045907060732</v>
+        <v>1027.364752165472</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1377</v>
       </c>
       <c r="C50">
-        <v>875.0707375694278</v>
+        <v>1027.30991572586</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1414</v>
       </c>
       <c r="C51">
-        <v>876.8854149621142</v>
+        <v>1027.492102115945</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1452</v>
       </c>
       <c r="C52">
-        <v>878.911688527273</v>
+        <v>1027.800580438054</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1492</v>
       </c>
       <c r="C53">
-        <v>882.6043870351352</v>
+        <v>1028.028716521523</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1532</v>
       </c>
       <c r="C54">
-        <v>886.1543106184478</v>
+        <v>1028.292951570253</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1573</v>
       </c>
       <c r="C55">
-        <v>891.8155747982271</v>
+        <v>1028.264552629832</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1616</v>
       </c>
       <c r="C56">
-        <v>897.2423174790079</v>
+        <v>1027.705794996225</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1659</v>
       </c>
       <c r="C57">
-        <v>899.5856096751797</v>
+        <v>1026.873158059161</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1704</v>
       </c>
       <c r="C58">
-        <v>900.4707647216615</v>
+        <v>1026.120181843115</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1751</v>
       </c>
       <c r="C59">
-        <v>901.5686295065217</v>
+        <v>1025.398385591236</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>2098</v>
       </c>
       <c r="C60">
-        <v>904.656407209603</v>
+        <v>1020.147880849143</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>2938</v>
       </c>
       <c r="C61">
-        <v>911.2034788496537</v>
+        <v>1012.797518921471</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>3060</v>
       </c>
       <c r="C62">
-        <v>912.1673648400108</v>
+        <v>1012.183449496384</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>3184</v>
       </c>
       <c r="C63">
-        <v>913.1174061474123</v>
+        <v>1011.52381584757</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>3307</v>
       </c>
       <c r="C64">
-        <v>913.7790811927226</v>
+        <v>1010.947735958223</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>3430</v>
       </c>
       <c r="C65">
-        <v>914.6378137127042</v>
+        <v>1010.528340106842</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -1,51 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Wavelength [nm]</t>
-  </si>
-  <si>
-    <t>D_lambda [ppm]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,726 +420,736 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Wavelength [nm]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>D_lambda [ppm]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1641.658897393539</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>300.5</v>
-      </c>
-      <c r="C2">
-        <v>1019.818874306688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>314.5</v>
       </c>
-      <c r="C3">
-        <v>993.0322683882054</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="C3" t="n">
+        <v>1837.637259571645</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>328.4</v>
       </c>
-      <c r="C4">
-        <v>1005.216874844783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="C4" t="n">
+        <v>1810.455406418443</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>342</v>
       </c>
-      <c r="C5">
-        <v>1021.007972662469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="C5" t="n">
+        <v>1663.396703022957</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>356</v>
       </c>
-      <c r="C6">
-        <v>1024.834302470246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="C6" t="n">
+        <v>1655.823409729695</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>369.6</v>
       </c>
-      <c r="C7">
-        <v>1031.341892657855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="C7" t="n">
+        <v>1615.539850724157</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>383.5</v>
       </c>
-      <c r="C8">
-        <v>1041.3848976627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="C8" t="n">
+        <v>1504.974579790264</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>397.5</v>
       </c>
-      <c r="C9">
-        <v>1038.21761213041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="C9" t="n">
+        <v>1562.662237662882</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>411.1</v>
       </c>
-      <c r="C10">
-        <v>1033.794401743227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="C10" t="n">
+        <v>1588.618382640794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>425</v>
       </c>
-      <c r="C11">
-        <v>1039.003312756637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="C11" t="n">
+        <v>1526.14977281551</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>439</v>
       </c>
-      <c r="C12">
-        <v>1044.109636529123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="C12" t="n">
+        <v>1514.223338289544</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>452.6</v>
       </c>
-      <c r="C13">
-        <v>1042.986982193184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="C13" t="n">
+        <v>1533.20154837755</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>466.6</v>
       </c>
-      <c r="C14">
-        <v>1043.469777271211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="C14" t="n">
+        <v>1519.263152449768</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>480.5</v>
       </c>
-      <c r="C15">
-        <v>1041.229210730021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="C15" t="n">
+        <v>1511.234742635259</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>494.1</v>
       </c>
-      <c r="C16">
-        <v>1042.584822950721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="C16" t="n">
+        <v>1475.226597764223</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>508.3</v>
       </c>
-      <c r="C17">
-        <v>1037.664461810195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="C17" t="n">
+        <v>1453.033672904835</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>522</v>
       </c>
-      <c r="C18">
-        <v>1044.195402046921</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="C18" t="n">
+        <v>1414.700173501093</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>535.5999999999999</v>
       </c>
-      <c r="C19">
-        <v>1045.554744999677</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="C19" t="n">
+        <v>1420.678197502911</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>550</v>
       </c>
-      <c r="C20">
-        <v>1045.60244847629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="C20" t="n">
+        <v>1415.808190896817</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>563.5</v>
       </c>
-      <c r="C21">
-        <v>1046.503106510221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="C21" t="n">
+        <v>1402.929334782033</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>588.4000000000001</v>
       </c>
-      <c r="C22">
-        <v>1046.217385498926</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="C22" t="n">
+        <v>1383.297313842569</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>614</v>
       </c>
-      <c r="C23">
-        <v>1045.808824293615</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="C23" t="n">
+        <v>1362.363609380801</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>639</v>
       </c>
-      <c r="C24">
-        <v>1045.141953470607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="C24" t="n">
+        <v>1342.391829753153</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>664.6</v>
       </c>
-      <c r="C25">
-        <v>1044.590254513755</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="C25" t="n">
+        <v>1329.378207981846</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>689.5</v>
       </c>
-      <c r="C26">
-        <v>1043.594981281037</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="C26" t="n">
+        <v>1316.203305594121</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>715</v>
       </c>
-      <c r="C27">
-        <v>1042.660623550184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="C27" t="n">
+        <v>1303.575711338101</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>740</v>
       </c>
-      <c r="C28">
-        <v>1041.897366624411</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="C28" t="n">
+        <v>1286.12162140429</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>765</v>
       </c>
-      <c r="C29">
-        <v>1041.058522124883</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="C29" t="n">
+        <v>1275.334723100929</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>790.5</v>
       </c>
-      <c r="C30">
-        <v>1040.190002823183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="C30" t="n">
+        <v>1267.809435287814</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>816</v>
       </c>
-      <c r="C31">
-        <v>1039.191022892516</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="C31" t="n">
+        <v>1255.022424072272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>841.3000000000001</v>
       </c>
-      <c r="C32">
-        <v>1038.290798009989</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="C32" t="n">
+        <v>1246.888901096588</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>866</v>
       </c>
-      <c r="C33">
-        <v>1037.499605958114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="C33" t="n">
+        <v>1239.283896090404</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>891.5999999999999</v>
       </c>
-      <c r="C34">
-        <v>1036.608961371366</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="C34" t="n">
+        <v>1232.328817654338</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>917</v>
       </c>
-      <c r="C35">
-        <v>1035.803462762885</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="C35" t="n">
+        <v>1226.900388380359</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>942.4</v>
       </c>
-      <c r="C36">
-        <v>1034.985294089741</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="C36" t="n">
+        <v>1221.740502374891</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>967.3000000000001</v>
       </c>
-      <c r="C37">
-        <v>1034.133429667738</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="C37" t="n">
+        <v>1215.99905232439</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>992.7</v>
       </c>
-      <c r="C38">
-        <v>1033.328944796685</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="C38" t="n">
+        <v>1212.645318260597</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>1018</v>
       </c>
-      <c r="C39">
-        <v>1032.692957783854</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="C39" t="n">
+        <v>1207.720904513487</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>1055</v>
       </c>
-      <c r="C40">
-        <v>1031.745839465081</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="C40" t="n">
+        <v>1200.836153884666</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>1083</v>
       </c>
-      <c r="C41">
-        <v>1031.204667379715</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
+      <c r="C41" t="n">
+        <v>1195.305796669266</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>1112</v>
       </c>
-      <c r="C42">
-        <v>1030.417902951775</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
+      <c r="C42" t="n">
+        <v>1193.913147549908</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>1143</v>
       </c>
-      <c r="C43">
-        <v>1029.777211583927</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
+      <c r="C43" t="n">
+        <v>1189.44530187759</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>1174</v>
       </c>
-      <c r="C44">
-        <v>1029.179597094809</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
+      <c r="C44" t="n">
+        <v>1186.407222042218</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>1205</v>
       </c>
-      <c r="C45">
-        <v>1028.712653378894</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
+      <c r="C45" t="n">
+        <v>1183.736377377787</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>1237</v>
       </c>
-      <c r="C46">
-        <v>1028.226592689419</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
+      <c r="C46" t="n">
+        <v>1182.108651675784</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>1271</v>
       </c>
-      <c r="C47">
-        <v>1027.832577689014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
+      <c r="C47" t="n">
+        <v>1179.695265606795</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>1306</v>
       </c>
-      <c r="C48">
-        <v>1027.500654401603</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
+      <c r="C48" t="n">
+        <v>1176.409579938475</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>1341</v>
       </c>
-      <c r="C49">
-        <v>1027.364752165472</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
+      <c r="C49" t="n">
+        <v>1174.818429317326</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>1377</v>
       </c>
-      <c r="C50">
-        <v>1027.30991572586</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
+      <c r="C50" t="n">
+        <v>1171.500771610212</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>1414</v>
       </c>
-      <c r="C51">
-        <v>1027.492102115945</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
+      <c r="C51" t="n">
+        <v>1167.386053161024</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>1452</v>
       </c>
-      <c r="C52">
-        <v>1027.800580438054</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
+      <c r="C52" t="n">
+        <v>1163.074048660118</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>1492</v>
       </c>
-      <c r="C53">
-        <v>1028.028716521523</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
+      <c r="C53" t="n">
+        <v>1155.865180796245</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>1532</v>
       </c>
-      <c r="C54">
-        <v>1028.292951570253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
+      <c r="C54" t="n">
+        <v>1149.398474683205</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>1573</v>
       </c>
-      <c r="C55">
-        <v>1028.264552629832</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
+      <c r="C55" t="n">
+        <v>1138.888864595011</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>1616</v>
       </c>
-      <c r="C56">
-        <v>1027.705794996225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
+      <c r="C56" t="n">
+        <v>1129.047228929925</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>1659</v>
       </c>
-      <c r="C57">
-        <v>1026.873158059161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
+      <c r="C57" t="n">
+        <v>1124.291294362867</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>1704</v>
       </c>
-      <c r="C58">
-        <v>1026.120181843115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
+      <c r="C58" t="n">
+        <v>1121.911511493656</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>1751</v>
       </c>
-      <c r="C59">
-        <v>1025.398385591236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
+      <c r="C59" t="n">
+        <v>1118.779521797064</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>2098</v>
       </c>
-      <c r="C60">
-        <v>1020.147880849143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
+      <c r="C60" t="n">
+        <v>1107.38636889951</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>2938</v>
       </c>
-      <c r="C61">
-        <v>1012.797518921471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
+      <c r="C61" t="n">
+        <v>1083.965082401606</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>3060</v>
       </c>
-      <c r="C62">
-        <v>1012.183449496384</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
+      <c r="C62" t="n">
+        <v>1083.158627466108</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>3184</v>
       </c>
-      <c r="C63">
-        <v>1011.52381584757</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
+      <c r="C63" t="n">
+        <v>1078.388419650467</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>3307</v>
       </c>
-      <c r="C64">
-        <v>1010.947735958223</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
+      <c r="C64" t="n">
+        <v>1076.503429496056</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>3430</v>
       </c>
-      <c r="C65">
-        <v>1010.528340106842</v>
+      <c r="C65" t="n">
+        <v>1076.56295641656</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,414 @@
         <v>432</v>
       </c>
       <c r="C2">
-        <v>11984.34412744565</v>
+        <v>2800.322460346227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>487</v>
+      </c>
+      <c r="C3">
+        <v>2868.939329550568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>521.5</v>
+      </c>
+      <c r="C4">
+        <v>2984.83454927978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>556</v>
+      </c>
+      <c r="C5">
+        <v>3076.777390774277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>563.5</v>
+      </c>
+      <c r="C6">
+        <v>3097.533594379031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>588.4000000000001</v>
+      </c>
+      <c r="C7">
+        <v>3149.083467112068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>614</v>
+      </c>
+      <c r="C8">
+        <v>3215.271831021438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>639</v>
+      </c>
+      <c r="C9">
+        <v>3269.396927331414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>664.6</v>
+      </c>
+      <c r="C10">
+        <v>3336.352106633078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>689.5</v>
+      </c>
+      <c r="C11">
+        <v>3357.567124208316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>715</v>
+      </c>
+      <c r="C12">
+        <v>3403.245507438424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>740</v>
+      </c>
+      <c r="C13">
+        <v>3447.341719691299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>765</v>
+      </c>
+      <c r="C14">
+        <v>3481.557281791891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>790.5</v>
+      </c>
+      <c r="C15">
+        <v>3513.022802581367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>816</v>
+      </c>
+      <c r="C16">
+        <v>3540.494372287317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>841.3000000000001</v>
+      </c>
+      <c r="C17">
+        <v>3580.475361946389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>866</v>
+      </c>
+      <c r="C18">
+        <v>3617.535752725831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>891.5999999999999</v>
+      </c>
+      <c r="C19">
+        <v>3640.904851395454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>917</v>
+      </c>
+      <c r="C20">
+        <v>3650.587036776676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>942.4</v>
+      </c>
+      <c r="C21">
+        <v>3665.312772436868</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>967.3000000000001</v>
+      </c>
+      <c r="C22">
+        <v>3689.384282180686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>992.7</v>
+      </c>
+      <c r="C23">
+        <v>3687.184088924434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1018</v>
+      </c>
+      <c r="C24">
+        <v>3713.178402972917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1060</v>
+      </c>
+      <c r="C25">
+        <v>3738.996517624771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1098</v>
+      </c>
+      <c r="C26">
+        <v>3767.31762202065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1138</v>
+      </c>
+      <c r="C27">
+        <v>3775.613889119511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1179</v>
+      </c>
+      <c r="C28">
+        <v>3793.026961974477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1222</v>
+      </c>
+      <c r="C29">
+        <v>3803.666894016677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1266</v>
+      </c>
+      <c r="C30">
+        <v>3830.618758507987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1312</v>
+      </c>
+      <c r="C31">
+        <v>3839.965228290998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1358</v>
+      </c>
+      <c r="C32">
+        <v>3862.98178854283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1408</v>
+      </c>
+      <c r="C33">
+        <v>3885.850388387513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1459</v>
+      </c>
+      <c r="C34">
+        <v>3913.482611357599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1512</v>
+      </c>
+      <c r="C35">
+        <v>3950.564746653451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1566</v>
+      </c>
+      <c r="C36">
+        <v>3983.329129112256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1623</v>
+      </c>
+      <c r="C37">
+        <v>4020.013487031848</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1682</v>
+      </c>
+      <c r="C38">
+        <v>4019.03815353144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1743</v>
+      </c>
+      <c r="C39">
+        <v>4057.955143143888</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>432</v>
+        <v>300.5</v>
       </c>
       <c r="C2">
-        <v>2800.322460346227</v>
+        <v>648.5218620877475</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>487</v>
+        <v>314.5</v>
       </c>
       <c r="C3">
-        <v>2868.939329550568</v>
+        <v>542.8372192339825</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>521.5</v>
+        <v>328.4</v>
       </c>
       <c r="C4">
-        <v>2984.83454927978</v>
+        <v>544.0243248082677</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>556</v>
+        <v>342</v>
       </c>
       <c r="C5">
-        <v>3076.777390774277</v>
+        <v>621.4941140871844</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>563.5</v>
+        <v>356</v>
       </c>
       <c r="C6">
-        <v>3097.533594379031</v>
+        <v>621.6624028950735</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>588.4000000000001</v>
+        <v>369.6</v>
       </c>
       <c r="C7">
-        <v>3149.083467112068</v>
+        <v>639.2826832849474</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>614</v>
+        <v>383.5</v>
       </c>
       <c r="C8">
-        <v>3215.271831021438</v>
+        <v>699.6753702954717</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>639</v>
+        <v>397.5</v>
       </c>
       <c r="C9">
-        <v>3269.396927331414</v>
+        <v>664.6434664923096</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>664.6</v>
+        <v>411.1</v>
       </c>
       <c r="C10">
-        <v>3336.352106633078</v>
+        <v>650.8052907531203</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>689.5</v>
+        <v>425</v>
       </c>
       <c r="C11">
-        <v>3357.567124208316</v>
+        <v>684.1310767041753</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>715</v>
+        <v>439</v>
       </c>
       <c r="C12">
-        <v>3403.245507438424</v>
+        <v>687.612527645598</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>740</v>
+        <v>452.6</v>
       </c>
       <c r="C13">
-        <v>3447.341719691299</v>
+        <v>675.3806862879186</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>765</v>
+        <v>466.6</v>
       </c>
       <c r="C14">
-        <v>3481.557281791891</v>
+        <v>682.5433297974471</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>790.5</v>
+        <v>480.5</v>
       </c>
       <c r="C15">
-        <v>3513.022802581367</v>
+        <v>687.4641506234847</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>816</v>
+        <v>494.1</v>
       </c>
       <c r="C16">
-        <v>3540.494372287317</v>
+        <v>708.2026844185129</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>841.3000000000001</v>
+        <v>508.3</v>
       </c>
       <c r="C17">
-        <v>3580.475361946389</v>
+        <v>723.5555709992348</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>866</v>
+        <v>522</v>
       </c>
       <c r="C18">
-        <v>3617.535752725831</v>
+        <v>743.1376355206964</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>891.5999999999999</v>
+        <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>3640.904851395454</v>
+        <v>737.9579287208893</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>917</v>
+        <v>550</v>
       </c>
       <c r="C20">
-        <v>3650.587036776676</v>
+        <v>740.0846604397326</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>942.4</v>
+        <v>563.5</v>
       </c>
       <c r="C21">
-        <v>3665.312772436868</v>
+        <v>747.0217090528308</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>967.3000000000001</v>
+        <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>3689.384282180686</v>
+        <v>758.0243611096105</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>992.7</v>
+        <v>614</v>
       </c>
       <c r="C23">
-        <v>3687.184088924434</v>
+        <v>769.913414766954</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1018</v>
+        <v>639</v>
       </c>
       <c r="C24">
-        <v>3713.178402972917</v>
+        <v>781.3338713095197</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1060</v>
+        <v>664.6</v>
       </c>
       <c r="C25">
-        <v>3738.996517624771</v>
+        <v>788.4694833929507</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1098</v>
+        <v>689.5</v>
       </c>
       <c r="C26">
-        <v>3767.31762202065</v>
+        <v>795.9990780785909</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1138</v>
+        <v>715</v>
       </c>
       <c r="C27">
-        <v>3775.613889119511</v>
+        <v>803.0749511449553</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1179</v>
+        <v>740</v>
       </c>
       <c r="C28">
-        <v>3793.026961974477</v>
+        <v>813.2477400347726</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1222</v>
+        <v>765</v>
       </c>
       <c r="C29">
-        <v>3803.666894016677</v>
+        <v>819.4318787552169</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1266</v>
+        <v>790.5</v>
       </c>
       <c r="C30">
-        <v>3830.618758507987</v>
+        <v>823.5963340752495</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1312</v>
+        <v>816</v>
       </c>
       <c r="C31">
-        <v>3839.965228290998</v>
+        <v>831.1378702148264</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1358</v>
+        <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>3862.98178854283</v>
+        <v>835.6419846562435</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1408</v>
+        <v>866</v>
       </c>
       <c r="C33">
-        <v>3885.850388387513</v>
+        <v>839.9682791802032</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1459</v>
+        <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>3913.482611357599</v>
+        <v>843.8533291053041</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1512</v>
+        <v>917</v>
       </c>
       <c r="C35">
-        <v>3950.564746653451</v>
+        <v>846.9174244863931</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1566</v>
+        <v>942.4</v>
       </c>
       <c r="C36">
-        <v>3983.329129112256</v>
+        <v>849.6832873156058</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1623</v>
+        <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>4020.013487031848</v>
+        <v>852.9014591023288</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1682</v>
+        <v>992.7</v>
       </c>
       <c r="C38">
-        <v>4019.03815353144</v>
+        <v>854.7578712015946</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,296 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1743</v>
+        <v>1018</v>
       </c>
       <c r="C39">
-        <v>4057.955143143888</v>
+        <v>857.3687578116162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1055</v>
+      </c>
+      <c r="C40">
+        <v>861.2125890975486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1083</v>
+      </c>
+      <c r="C41">
+        <v>864.1524254465738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1112</v>
+      </c>
+      <c r="C42">
+        <v>864.7332298017396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1143</v>
+      </c>
+      <c r="C43">
+        <v>866.9465102695284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1174</v>
+      </c>
+      <c r="C44">
+        <v>868.5250025152192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1205</v>
+      </c>
+      <c r="C45">
+        <v>869.8939773679193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1237</v>
+      </c>
+      <c r="C46">
+        <v>870.4474055173383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1271</v>
+      </c>
+      <c r="C47">
+        <v>871.5300530509618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1306</v>
+      </c>
+      <c r="C48">
+        <v>873.093703903538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1341</v>
+      </c>
+      <c r="C49">
+        <v>873.8747631843457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1377</v>
+      </c>
+      <c r="C50">
+        <v>875.5791450362204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1414</v>
+      </c>
+      <c r="C51">
+        <v>877.8691746745837</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1452</v>
+      </c>
+      <c r="C52">
+        <v>880.4007064967534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1492</v>
+      </c>
+      <c r="C53">
+        <v>884.794222982821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1532</v>
+      </c>
+      <c r="C54">
+        <v>889.0068599922696</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1573</v>
+      </c>
+      <c r="C55">
+        <v>895.6441404246451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1616</v>
+      </c>
+      <c r="C56">
+        <v>902.0479640041711</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1659</v>
+      </c>
+      <c r="C57">
+        <v>905.0071596286014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1704</v>
+      </c>
+      <c r="C58">
+        <v>906.3696520759113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1751</v>
+      </c>
+      <c r="C59">
+        <v>907.978728982739</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>2098</v>
+      </c>
+      <c r="C60">
+        <v>913.890219148783</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2938</v>
+      </c>
+      <c r="C61">
+        <v>925.5417562294977</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3060</v>
+      </c>
+      <c r="C62">
+        <v>927.1123280009119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3184</v>
+      </c>
+      <c r="C63">
+        <v>928.6624337616622</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3307</v>
+      </c>
+      <c r="C64">
+        <v>929.8786262196268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3430</v>
+      </c>
+      <c r="C65">
+        <v>931.0921673471029</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>300.5</v>
+        <v>417.7</v>
       </c>
       <c r="C2">
-        <v>648.5218620877475</v>
+        <v>239.2257627722438</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>314.5</v>
+        <v>452.1</v>
       </c>
       <c r="C3">
-        <v>542.8372192339825</v>
+        <v>251.4540104732177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>328.4</v>
+        <v>486.8</v>
       </c>
       <c r="C4">
-        <v>544.0243248082677</v>
+        <v>260.8801324122112</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>342</v>
+        <v>521.5</v>
       </c>
       <c r="C5">
-        <v>621.4941140871844</v>
+        <v>267.5039311211824</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="C6">
-        <v>621.6624028950735</v>
+        <v>273.1858602595949</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>369.6</v>
+        <v>563.5</v>
       </c>
       <c r="C7">
-        <v>639.2826832849474</v>
+        <v>274.1149597169646</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>383.5</v>
+        <v>588.4000000000001</v>
       </c>
       <c r="C8">
-        <v>699.6753702954717</v>
+        <v>277.5350939168142</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>397.5</v>
+        <v>614</v>
       </c>
       <c r="C9">
-        <v>664.6434664923096</v>
+        <v>280.0074225715043</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>411.1</v>
+        <v>639</v>
       </c>
       <c r="C10">
-        <v>650.8052907531203</v>
+        <v>282.1485709741945</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>425</v>
+        <v>664.6</v>
       </c>
       <c r="C11">
-        <v>684.1310767041753</v>
+        <v>283.7469509591184</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>439</v>
+        <v>689.5</v>
       </c>
       <c r="C12">
-        <v>687.612527645598</v>
+        <v>285.6375124553612</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>452.6</v>
+        <v>715</v>
       </c>
       <c r="C13">
-        <v>675.3806862879186</v>
+        <v>286.8126106431168</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>466.6</v>
+        <v>740</v>
       </c>
       <c r="C14">
-        <v>682.5433297974471</v>
+        <v>287.8893323029486</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>480.5</v>
+        <v>765</v>
       </c>
       <c r="C15">
-        <v>687.4641506234847</v>
+        <v>288.823691838691</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>494.1</v>
+        <v>790.5</v>
       </c>
       <c r="C16">
-        <v>708.2026844185129</v>
+        <v>289.8814298750718</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>508.3</v>
+        <v>816</v>
       </c>
       <c r="C17">
-        <v>723.5555709992348</v>
+        <v>290.6007538899802</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>522</v>
+        <v>841.3000000000001</v>
       </c>
       <c r="C18">
-        <v>743.1376355206964</v>
+        <v>290.9851688932541</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>535.5999999999999</v>
+        <v>866</v>
       </c>
       <c r="C19">
-        <v>737.9579287208893</v>
+        <v>291.2589647636743</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>550</v>
+        <v>891.5999999999999</v>
       </c>
       <c r="C20">
-        <v>740.0846604397326</v>
+        <v>291.9400478884615</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>563.5</v>
+        <v>917</v>
       </c>
       <c r="C21">
-        <v>747.0217090528308</v>
+        <v>292.6048459500619</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>588.4000000000001</v>
+        <v>942.4</v>
       </c>
       <c r="C22">
-        <v>758.0243611096105</v>
+        <v>293.2471325629571</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>614</v>
+        <v>967.3000000000001</v>
       </c>
       <c r="C23">
-        <v>769.913414766954</v>
+        <v>293.6399437408754</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>639</v>
+        <v>992.7</v>
       </c>
       <c r="C24">
-        <v>781.3338713095197</v>
+        <v>294.4825785701211</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>664.6</v>
+        <v>1018</v>
       </c>
       <c r="C25">
-        <v>788.4694833929507</v>
+        <v>294.7447251255841</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>689.5</v>
+        <v>1060</v>
       </c>
       <c r="C26">
-        <v>795.9990780785909</v>
+        <v>294.9384764975305</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>715</v>
+        <v>1098</v>
       </c>
       <c r="C27">
-        <v>803.0749511449553</v>
+        <v>295.4154708595391</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>740</v>
+        <v>1138</v>
       </c>
       <c r="C28">
-        <v>813.2477400347726</v>
+        <v>296.2062430983403</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>765</v>
+        <v>1179</v>
       </c>
       <c r="C29">
-        <v>819.4318787552169</v>
+        <v>296.5932132236171</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>790.5</v>
+        <v>1222</v>
       </c>
       <c r="C30">
-        <v>823.5963340752495</v>
+        <v>297.1015560007118</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>816</v>
+        <v>1266</v>
       </c>
       <c r="C31">
-        <v>831.1378702148264</v>
+        <v>297.4030212506973</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>841.3000000000001</v>
+        <v>1312</v>
       </c>
       <c r="C32">
-        <v>835.6419846562435</v>
+        <v>297.7982596749085</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>866</v>
+        <v>1358</v>
       </c>
       <c r="C33">
-        <v>839.9682791802032</v>
+        <v>297.9378296751323</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>891.5999999999999</v>
+        <v>1408</v>
       </c>
       <c r="C34">
-        <v>843.8533291053041</v>
+        <v>297.5193532932519</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>917</v>
+        <v>1459</v>
       </c>
       <c r="C35">
-        <v>846.9174244863931</v>
+        <v>297.2683867051851</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>942.4</v>
+        <v>1512</v>
       </c>
       <c r="C36">
-        <v>849.6832873156058</v>
+        <v>296.5042426874564</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>967.3000000000001</v>
+        <v>1566</v>
       </c>
       <c r="C37">
-        <v>852.9014591023288</v>
+        <v>295.6419312285519</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>992.7</v>
+        <v>1623</v>
       </c>
       <c r="C38">
-        <v>854.7578712015946</v>
+        <v>294.8430564596594</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1018</v>
+        <v>1682</v>
       </c>
       <c r="C39">
-        <v>857.3687578116162</v>
+        <v>295.1234636877631</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,285 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1055</v>
+        <v>1743</v>
       </c>
       <c r="C40">
-        <v>861.2125890975486</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>1083</v>
-      </c>
-      <c r="C41">
-        <v>864.1524254465738</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>1112</v>
-      </c>
-      <c r="C42">
-        <v>864.7332298017396</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>1143</v>
-      </c>
-      <c r="C43">
-        <v>866.9465102695284</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>1174</v>
-      </c>
-      <c r="C44">
-        <v>868.5250025152192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>1205</v>
-      </c>
-      <c r="C45">
-        <v>869.8939773679193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>1237</v>
-      </c>
-      <c r="C46">
-        <v>870.4474055173383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>1271</v>
-      </c>
-      <c r="C47">
-        <v>871.5300530509618</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>1306</v>
-      </c>
-      <c r="C48">
-        <v>873.093703903538</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1341</v>
-      </c>
-      <c r="C49">
-        <v>873.8747631843457</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>1377</v>
-      </c>
-      <c r="C50">
-        <v>875.5791450362204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1414</v>
-      </c>
-      <c r="C51">
-        <v>877.8691746745837</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>1452</v>
-      </c>
-      <c r="C52">
-        <v>880.4007064967534</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>1492</v>
-      </c>
-      <c r="C53">
-        <v>884.794222982821</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>1532</v>
-      </c>
-      <c r="C54">
-        <v>889.0068599922696</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>1573</v>
-      </c>
-      <c r="C55">
-        <v>895.6441404246451</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>1616</v>
-      </c>
-      <c r="C56">
-        <v>902.0479640041711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>1659</v>
-      </c>
-      <c r="C57">
-        <v>905.0071596286014</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>1704</v>
-      </c>
-      <c r="C58">
-        <v>906.3696520759113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>1751</v>
-      </c>
-      <c r="C59">
-        <v>907.978728982739</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>2098</v>
-      </c>
-      <c r="C60">
-        <v>913.890219148783</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>2938</v>
-      </c>
-      <c r="C61">
-        <v>925.5417562294977</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>3060</v>
-      </c>
-      <c r="C62">
-        <v>927.1123280009119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>3184</v>
-      </c>
-      <c r="C63">
-        <v>928.6624337616622</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>3307</v>
-      </c>
-      <c r="C64">
-        <v>929.8786262196268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>3430</v>
-      </c>
-      <c r="C65">
-        <v>931.0921673471029</v>
+        <v>294.7161959552247</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -453,7 +453,7 @@
         <v>417.7</v>
       </c>
       <c r="C2" t="n">
-        <v>283.2239420315075</v>
+        <v>375.1097593837072</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>452.1</v>
       </c>
       <c r="C3" t="n">
-        <v>289.6882987073468</v>
+        <v>368.9072451490416</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         <v>486.8</v>
       </c>
       <c r="C4" t="n">
-        <v>294.5041364575962</v>
+        <v>363.5624925941716</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>521.5</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2376387860853</v>
+        <v>357.8450056699323</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         <v>556</v>
       </c>
       <c r="C6" t="n">
-        <v>299.6593829242</v>
+        <v>353.8390136330616</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         <v>563.5</v>
       </c>
       <c r="C7" t="n">
-        <v>299.9013472979595</v>
+        <v>352.7971998117385</v>
       </c>
     </row>
     <row r="8">
@@ -519,7 +519,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>301.5792501454006</v>
+        <v>350.7914379288213</v>
       </c>
     </row>
     <row r="9">
@@ -530,7 +530,7 @@
         <v>614</v>
       </c>
       <c r="C9" t="n">
-        <v>302.2848139822009</v>
+        <v>348.0317053512483</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         <v>639</v>
       </c>
       <c r="C10" t="n">
-        <v>302.9524816076101</v>
+        <v>345.7683044614246</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +552,7 @@
         <v>664.6</v>
       </c>
       <c r="C11" t="n">
-        <v>303.0832039350173</v>
+        <v>343.2100115743353</v>
       </c>
     </row>
     <row r="12">
@@ -563,7 +563,7 @@
         <v>689.5</v>
       </c>
       <c r="C12" t="n">
-        <v>303.96558377499</v>
+        <v>341.8891018622805</v>
       </c>
     </row>
     <row r="13">
@@ -574,7 +574,7 @@
         <v>715</v>
       </c>
       <c r="C13" t="n">
-        <v>304.0367397623145</v>
+        <v>339.8496428400621</v>
       </c>
     </row>
     <row r="14">
@@ -585,7 +585,7 @@
         <v>740</v>
       </c>
       <c r="C14" t="n">
-        <v>304.1619793994199</v>
+        <v>338.1519322800397</v>
       </c>
     </row>
     <row r="15">
@@ -596,7 +596,7 @@
         <v>765</v>
       </c>
       <c r="C15" t="n">
-        <v>304.2404392411546</v>
+        <v>336.5968899640137</v>
       </c>
     </row>
     <row r="16">
@@ -607,7 +607,7 @@
         <v>790.5</v>
       </c>
       <c r="C16" t="n">
-        <v>304.5812398965176</v>
+        <v>335.4702216729066</v>
       </c>
     </row>
     <row r="17">
@@ -618,7 +618,7 @@
         <v>816</v>
       </c>
       <c r="C17" t="n">
-        <v>304.6048183186212</v>
+        <v>334.1300135997205</v>
       </c>
     </row>
     <row r="18">
@@ -629,7 +629,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>304.2871503845523</v>
+        <v>332.5559030201708</v>
       </c>
     </row>
     <row r="19">
@@ -640,7 +640,7 @@
         <v>866</v>
       </c>
       <c r="C19" t="n">
-        <v>303.9364499792807</v>
+        <v>331.0824017893621</v>
       </c>
     </row>
     <row r="20">
@@ -651,7 +651,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>304.1096666226428</v>
+        <v>330.2589285230084</v>
       </c>
     </row>
     <row r="21">
@@ -662,7 +662,7 @@
         <v>917</v>
       </c>
       <c r="C21" t="n">
-        <v>304.3384641345792</v>
+        <v>329.5845624390337</v>
       </c>
     </row>
     <row r="22">
@@ -673,7 +673,7 @@
         <v>942.4</v>
       </c>
       <c r="C22" t="n">
-        <v>304.5919175010958</v>
+        <v>329.0091236761716</v>
       </c>
     </row>
     <row r="23">
@@ -684,7 +684,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>304.5770792758917</v>
+        <v>328.2276101577164</v>
       </c>
     </row>
     <row r="24">
@@ -695,7 +695,7 @@
         <v>992.7</v>
       </c>
       <c r="C24" t="n">
-        <v>305.14663382053</v>
+        <v>328.1235208153488</v>
       </c>
     </row>
     <row r="25">
@@ -706,7 +706,7 @@
         <v>1018</v>
       </c>
       <c r="C25" t="n">
-        <v>305.0467300236281</v>
+        <v>327.3455987188312</v>
       </c>
     </row>
     <row r="26">
@@ -717,7 +717,7 @@
         <v>1060</v>
       </c>
       <c r="C26" t="n">
-        <v>304.6797286880843</v>
+        <v>325.9350146710416</v>
       </c>
     </row>
     <row r="27">
@@ -728,7 +728,7 @@
         <v>1098</v>
       </c>
       <c r="C27" t="n">
-        <v>304.7462172285353</v>
+        <v>325.1978053531168</v>
       </c>
     </row>
     <row r="28">
@@ -739,7 +739,7 @@
         <v>1138</v>
       </c>
       <c r="C28" t="n">
-        <v>305.2139604099447</v>
+        <v>324.9330901833325</v>
       </c>
     </row>
     <row r="29">
@@ -750,7 +750,7 @@
         <v>1179</v>
       </c>
       <c r="C29" t="n">
-        <v>305.2424295091338</v>
+        <v>324.2519994448578</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +761,7 @@
         <v>1222</v>
       </c>
       <c r="C30" t="n">
-        <v>305.4279006903249</v>
+        <v>323.7803754423396</v>
       </c>
     </row>
     <row r="31">
@@ -772,7 +772,7 @@
         <v>1266</v>
       </c>
       <c r="C31" t="n">
-        <v>305.4002593364525</v>
+        <v>323.1326826588221</v>
       </c>
     </row>
     <row r="32">
@@ -783,7 +783,7 @@
         <v>1312</v>
       </c>
       <c r="C32" t="n">
-        <v>305.517139021938</v>
+        <v>322.6672394581742</v>
       </c>
     </row>
     <row r="33">
@@ -794,7 +794,7 @@
         <v>1358</v>
       </c>
       <c r="C33" t="n">
-        <v>305.365671631308</v>
+        <v>321.9756682413255</v>
       </c>
     </row>
     <row r="34">
@@ -805,7 +805,7 @@
         <v>1408</v>
       </c>
       <c r="C34" t="n">
-        <v>304.5993236062694</v>
+        <v>320.6327357119232</v>
       </c>
     </row>
     <row r="35">
@@ -816,7 +816,7 @@
         <v>1459</v>
       </c>
       <c r="C35" t="n">
-        <v>304.0511519308841</v>
+        <v>319.5650087380874</v>
       </c>
     </row>
     <row r="36">
@@ -827,7 +827,7 @@
         <v>1512</v>
       </c>
       <c r="C36" t="n">
-        <v>302.9616217198327</v>
+        <v>317.9471123083699</v>
       </c>
     </row>
     <row r="37">
@@ -838,7 +838,7 @@
         <v>1566</v>
       </c>
       <c r="C37" t="n">
-        <v>301.7907898145156</v>
+        <v>316.2798111933096</v>
       </c>
     </row>
     <row r="38">
@@ -849,7 +849,7 @@
         <v>1623</v>
       </c>
       <c r="C38" t="n">
-        <v>300.7140997496327</v>
+        <v>314.7305969946057</v>
       </c>
     </row>
     <row r="39">
@@ -860,7 +860,7 @@
         <v>1682</v>
       </c>
       <c r="C39" t="n">
-        <v>300.83674897452</v>
+        <v>314.4817169840053</v>
       </c>
     </row>
     <row r="40">
@@ -871,7 +871,7 @@
         <v>1743</v>
       </c>
       <c r="C40" t="n">
-        <v>300.2233495957851</v>
+        <v>313.4729732741093</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,428 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>417.7</v>
+        <v>300.5</v>
       </c>
       <c r="C2" t="n">
-        <v>375.1097593837072</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>452.1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>368.9072451490416</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>486.8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>363.5624925941716</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>521.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>357.8450056699323</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>556</v>
-      </c>
-      <c r="C6" t="n">
-        <v>353.8390136330616</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>563.5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>352.7971998117385</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>588.4000000000001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>350.7914379288213</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>614</v>
-      </c>
-      <c r="C9" t="n">
-        <v>348.0317053512483</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>639</v>
-      </c>
-      <c r="C10" t="n">
-        <v>345.7683044614246</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>664.6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>343.2100115743353</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>689.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>341.8891018622805</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>715</v>
-      </c>
-      <c r="C13" t="n">
-        <v>339.8496428400621</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>740</v>
-      </c>
-      <c r="C14" t="n">
-        <v>338.1519322800397</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>765</v>
-      </c>
-      <c r="C15" t="n">
-        <v>336.5968899640137</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>790.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>335.4702216729066</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>816</v>
-      </c>
-      <c r="C17" t="n">
-        <v>334.1300135997205</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>841.3000000000001</v>
-      </c>
-      <c r="C18" t="n">
-        <v>332.5559030201708</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>866</v>
-      </c>
-      <c r="C19" t="n">
-        <v>331.0824017893621</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>891.5999999999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>330.2589285230084</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>917</v>
-      </c>
-      <c r="C21" t="n">
-        <v>329.5845624390337</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>942.4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>329.0091236761716</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>967.3000000000001</v>
-      </c>
-      <c r="C23" t="n">
-        <v>328.2276101577164</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>992.7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>328.1235208153488</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1018</v>
-      </c>
-      <c r="C25" t="n">
-        <v>327.3455987188312</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1060</v>
-      </c>
-      <c r="C26" t="n">
-        <v>325.9350146710416</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1098</v>
-      </c>
-      <c r="C27" t="n">
-        <v>325.1978053531168</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1138</v>
-      </c>
-      <c r="C28" t="n">
-        <v>324.9330901833325</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1179</v>
-      </c>
-      <c r="C29" t="n">
-        <v>324.2519994448578</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1222</v>
-      </c>
-      <c r="C30" t="n">
-        <v>323.7803754423396</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1266</v>
-      </c>
-      <c r="C31" t="n">
-        <v>323.1326826588221</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1312</v>
-      </c>
-      <c r="C32" t="n">
-        <v>322.6672394581742</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1358</v>
-      </c>
-      <c r="C33" t="n">
-        <v>321.9756682413255</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1408</v>
-      </c>
-      <c r="C34" t="n">
-        <v>320.6327357119232</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1459</v>
-      </c>
-      <c r="C35" t="n">
-        <v>319.5650087380874</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1512</v>
-      </c>
-      <c r="C36" t="n">
-        <v>317.9471123083699</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1566</v>
-      </c>
-      <c r="C37" t="n">
-        <v>316.2798111933096</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1623</v>
-      </c>
-      <c r="C38" t="n">
-        <v>314.7305969946057</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1682</v>
-      </c>
-      <c r="C39" t="n">
-        <v>314.4817169840053</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1743</v>
-      </c>
-      <c r="C40" t="n">
-        <v>313.4729732741093</v>
+        <v>487.8659054539103</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,700 @@
         <v>300.5</v>
       </c>
       <c r="C2" t="n">
-        <v>487.8659054539103</v>
+        <v>484.4303777354897</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>407.9693605422152</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>328.4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>414.4337077682803</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>342</v>
+      </c>
+      <c r="C5" t="n">
+        <v>482.3646192841924</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>356</v>
+      </c>
+      <c r="C6" t="n">
+        <v>487.9105802640948</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>369.6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>507.4749278146662</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>383.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>563.2830893824714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>397.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>538.2328561884808</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>411.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>530.6749120059795</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>425</v>
+      </c>
+      <c r="C11" t="n">
+        <v>563.3470555298503</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>439</v>
+      </c>
+      <c r="C12" t="n">
+        <v>570.1229610145519</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>452.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>563.0031620300624</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>572.6839537560924</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>480.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>580.2959319725076</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>601.6613310900754</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>508.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>618.5285600728286</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>522</v>
+      </c>
+      <c r="C18" t="n">
+        <v>638.7356556875056</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>535.5999999999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>636.6715292254188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>550</v>
+      </c>
+      <c r="C20" t="n">
+        <v>641.2472795576107</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>563.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>649.885534898642</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>588.4000000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>664.0358978623473</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>614</v>
+      </c>
+      <c r="C23" t="n">
+        <v>678.8526949677021</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>639</v>
+      </c>
+      <c r="C24" t="n">
+        <v>692.9325778142204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>664.6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>702.9029700369449</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>689.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>712.9502970482093</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>715</v>
+      </c>
+      <c r="C27" t="n">
+        <v>722.4552485006752</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>740</v>
+      </c>
+      <c r="C28" t="n">
+        <v>734.6342048678567</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>765</v>
+      </c>
+      <c r="C29" t="n">
+        <v>742.9229158466555</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>790.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>749.2070715653388</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>816</v>
+      </c>
+      <c r="C31" t="n">
+        <v>758.5467819523072</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>841.3000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>764.8728227130919</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>866</v>
+      </c>
+      <c r="C33" t="n">
+        <v>770.8640118465615</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>891.5999999999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>776.3987245199555</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>917</v>
+      </c>
+      <c r="C35" t="n">
+        <v>781.0313683984659</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>942.4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>785.2876165843625</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>967.3000000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>789.8611890189145</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>992.7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>793.0762904558852</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C39" t="n">
+        <v>796.9341031724974</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C40" t="n">
+        <v>802.4767688225021</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1083</v>
+      </c>
+      <c r="C41" t="n">
+        <v>806.6119091126867</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1112</v>
+      </c>
+      <c r="C42" t="n">
+        <v>808.4515774978706</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1143</v>
+      </c>
+      <c r="C43" t="n">
+        <v>811.872942822589</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1174</v>
+      </c>
+      <c r="C44" t="n">
+        <v>814.6040985428372</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1205</v>
+      </c>
+      <c r="C45" t="n">
+        <v>817.06237771062</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C46" t="n">
+        <v>818.7052698166442</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1271</v>
+      </c>
+      <c r="C47" t="n">
+        <v>820.8573035386469</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1306</v>
+      </c>
+      <c r="C48" t="n">
+        <v>823.4405287312895</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1341</v>
+      </c>
+      <c r="C49" t="n">
+        <v>825.1954405059658</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1377</v>
+      </c>
+      <c r="C50" t="n">
+        <v>827.8144038121882</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1414</v>
+      </c>
+      <c r="C51" t="n">
+        <v>830.96672262295</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C52" t="n">
+        <v>834.320184569859</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1492</v>
+      </c>
+      <c r="C53" t="n">
+        <v>839.4799037163558</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1532</v>
+      </c>
+      <c r="C54" t="n">
+        <v>844.4099869603372</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1573</v>
+      </c>
+      <c r="C55" t="n">
+        <v>851.687195072004</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1616</v>
+      </c>
+      <c r="C56" t="n">
+        <v>858.7458122613078</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1659</v>
+      </c>
+      <c r="C57" t="n">
+        <v>862.4112412172202</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1704</v>
+      </c>
+      <c r="C58" t="n">
+        <v>864.5138963103705</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C59" t="n">
+        <v>866.8446739348301</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2098</v>
+      </c>
+      <c r="C60" t="n">
+        <v>877.0623931080302</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2938</v>
+      </c>
+      <c r="C61" t="n">
+        <v>894.4743012261335</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3060</v>
+      </c>
+      <c r="C62" t="n">
+        <v>896.5836686863904</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3184</v>
+      </c>
+      <c r="C63" t="n">
+        <v>898.6295719495274</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3307</v>
+      </c>
+      <c r="C64" t="n">
+        <v>900.3069315102197</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3430</v>
+      </c>
+      <c r="C65" t="n">
+        <v>901.9375854950606</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -453,7 +453,7 @@
         <v>300.5</v>
       </c>
       <c r="C2" t="n">
-        <v>484.4303777354897</v>
+        <v>655.6135653676964</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>314.5</v>
       </c>
       <c r="C3" t="n">
-        <v>407.9693605422152</v>
+        <v>551.4159515652706</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         <v>328.4</v>
       </c>
       <c r="C4" t="n">
-        <v>414.4337077682803</v>
+        <v>551.7761419926437</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>342</v>
       </c>
       <c r="C5" t="n">
-        <v>482.3646192841924</v>
+        <v>628.0090048200738</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         <v>356</v>
       </c>
       <c r="C6" t="n">
-        <v>487.9105802640948</v>
+        <v>627.8454998061012</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         <v>369.6</v>
       </c>
       <c r="C7" t="n">
-        <v>507.4749278146662</v>
+        <v>644.8890145062114</v>
       </c>
     </row>
     <row r="8">
@@ -519,7 +519,7 @@
         <v>383.5</v>
       </c>
       <c r="C8" t="n">
-        <v>563.2830893824714</v>
+        <v>704.1180029541127</v>
       </c>
     </row>
     <row r="9">
@@ -530,7 +530,7 @@
         <v>397.5</v>
       </c>
       <c r="C9" t="n">
-        <v>538.2328561884808</v>
+        <v>669.4919776829566</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         <v>411.1</v>
       </c>
       <c r="C10" t="n">
-        <v>530.6749120059795</v>
+        <v>655.8107634391241</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +552,7 @@
         <v>425</v>
       </c>
       <c r="C11" t="n">
-        <v>563.3470555298503</v>
+        <v>688.5138766805632</v>
       </c>
     </row>
     <row r="12">
@@ -563,7 +563,7 @@
         <v>439</v>
       </c>
       <c r="C12" t="n">
-        <v>570.1229610145519</v>
+        <v>691.7194150991568</v>
       </c>
     </row>
     <row r="13">
@@ -574,7 +574,7 @@
         <v>452.6</v>
       </c>
       <c r="C13" t="n">
-        <v>563.0031620300624</v>
+        <v>679.5451382879403</v>
       </c>
     </row>
     <row r="14">
@@ -585,7 +585,7 @@
         <v>466.6</v>
       </c>
       <c r="C14" t="n">
-        <v>572.6839537560924</v>
+        <v>686.526525763953</v>
       </c>
     </row>
     <row r="15">
@@ -596,7 +596,7 @@
         <v>480.5</v>
       </c>
       <c r="C15" t="n">
-        <v>580.2959319725076</v>
+        <v>691.3562076339419</v>
       </c>
     </row>
     <row r="16">
@@ -607,7 +607,7 @@
         <v>494.1</v>
       </c>
       <c r="C16" t="n">
-        <v>601.6613310900754</v>
+        <v>711.7736943531572</v>
       </c>
     </row>
     <row r="17">
@@ -618,7 +618,7 @@
         <v>508.3</v>
       </c>
       <c r="C17" t="n">
-        <v>618.5285600728286</v>
+        <v>727.0002879594673</v>
       </c>
     </row>
     <row r="18">
@@ -629,7 +629,7 @@
         <v>522</v>
       </c>
       <c r="C18" t="n">
-        <v>638.7356556875056</v>
+        <v>746.1512206659027</v>
       </c>
     </row>
     <row r="19">
@@ -640,7 +640,7 @@
         <v>535.5999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>636.6715292254188</v>
+        <v>740.9403902338685</v>
       </c>
     </row>
     <row r="20">
@@ -651,7 +651,7 @@
         <v>550</v>
       </c>
       <c r="C20" t="n">
-        <v>641.2472795576107</v>
+        <v>742.9816029688175</v>
       </c>
     </row>
     <row r="21">
@@ -662,7 +662,7 @@
         <v>563.5</v>
       </c>
       <c r="C21" t="n">
-        <v>649.885534898642</v>
+        <v>749.7743437626658</v>
       </c>
     </row>
     <row r="22">
@@ -673,7 +673,7 @@
         <v>588.4000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>664.0358978623473</v>
+        <v>760.5751446438935</v>
       </c>
     </row>
     <row r="23">
@@ -684,7 +684,7 @@
         <v>614</v>
       </c>
       <c r="C23" t="n">
-        <v>678.8526949677021</v>
+        <v>772.2627646198355</v>
       </c>
     </row>
     <row r="24">
@@ -695,7 +695,7 @@
         <v>639</v>
       </c>
       <c r="C24" t="n">
-        <v>692.9325778142204</v>
+        <v>783.501310067658</v>
       </c>
     </row>
     <row r="25">
@@ -706,7 +706,7 @@
         <v>664.6</v>
       </c>
       <c r="C25" t="n">
-        <v>702.9029700369449</v>
+        <v>790.5048296308337</v>
       </c>
     </row>
     <row r="26">
@@ -717,7 +717,7 @@
         <v>689.5</v>
       </c>
       <c r="C26" t="n">
-        <v>712.9502970482093</v>
+        <v>797.9148360356403</v>
       </c>
     </row>
     <row r="27">
@@ -728,7 +728,7 @@
         <v>715</v>
       </c>
       <c r="C27" t="n">
-        <v>722.4552485006752</v>
+        <v>804.8771327331394</v>
       </c>
     </row>
     <row r="28">
@@ -739,7 +739,7 @@
         <v>740</v>
       </c>
       <c r="C28" t="n">
-        <v>734.6342048678567</v>
+        <v>814.9102111179029</v>
       </c>
     </row>
     <row r="29">
@@ -750,7 +750,7 @@
         <v>765</v>
       </c>
       <c r="C29" t="n">
-        <v>742.9229158466555</v>
+        <v>821.0021946073454</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +761,7 @@
         <v>790.5</v>
       </c>
       <c r="C30" t="n">
-        <v>749.2070715653388</v>
+        <v>825.097589907342</v>
       </c>
     </row>
     <row r="31">
@@ -772,7 +772,7 @@
         <v>816</v>
       </c>
       <c r="C31" t="n">
-        <v>758.5467819523072</v>
+        <v>832.5428491231523</v>
       </c>
     </row>
     <row r="32">
@@ -783,7 +783,7 @@
         <v>841.3000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>764.8728227130919</v>
+        <v>836.9803900389883</v>
       </c>
     </row>
     <row r="33">
@@ -794,7 +794,7 @@
         <v>866</v>
       </c>
       <c r="C33" t="n">
-        <v>770.8640118465615</v>
+        <v>841.2458708373372</v>
       </c>
     </row>
     <row r="34">
@@ -805,7 +805,7 @@
         <v>891.5999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>776.3987245199555</v>
+        <v>845.0759306302125</v>
       </c>
     </row>
     <row r="35">
@@ -816,7 +816,7 @@
         <v>917</v>
       </c>
       <c r="C35" t="n">
-        <v>781.0313683984659</v>
+        <v>848.0956418046582</v>
       </c>
     </row>
     <row r="36">
@@ -827,7 +827,7 @@
         <v>942.4</v>
       </c>
       <c r="C36" t="n">
-        <v>785.2876165843625</v>
+        <v>850.8196957273118</v>
       </c>
     </row>
     <row r="37">
@@ -838,7 +838,7 @@
         <v>967.3000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>789.8611890189145</v>
+        <v>853.9952896683411</v>
       </c>
     </row>
     <row r="38">
@@ -849,7 +849,7 @@
         <v>992.7</v>
       </c>
       <c r="C38" t="n">
-        <v>793.0762904558852</v>
+        <v>855.8230091790797</v>
       </c>
     </row>
     <row r="39">
@@ -860,7 +860,7 @@
         <v>1018</v>
       </c>
       <c r="C39" t="n">
-        <v>796.9341031724974</v>
+        <v>858.3959733194923</v>
       </c>
     </row>
     <row r="40">
@@ -871,7 +871,7 @@
         <v>1055</v>
       </c>
       <c r="C40" t="n">
-        <v>802.4767688225021</v>
+        <v>862.1891381531688</v>
       </c>
     </row>
     <row r="41">
@@ -882,7 +882,7 @@
         <v>1083</v>
       </c>
       <c r="C41" t="n">
-        <v>806.6119091126867</v>
+        <v>865.088800913072</v>
       </c>
     </row>
     <row r="42">
@@ -893,7 +893,7 @@
         <v>1112</v>
       </c>
       <c r="C42" t="n">
-        <v>808.4515774978706</v>
+        <v>865.6532136100958</v>
       </c>
     </row>
     <row r="43">
@@ -904,7 +904,7 @@
         <v>1143</v>
       </c>
       <c r="C43" t="n">
-        <v>811.872942822589</v>
+        <v>867.8329600033674</v>
       </c>
     </row>
     <row r="44">
@@ -915,7 +915,7 @@
         <v>1174</v>
       </c>
       <c r="C44" t="n">
-        <v>814.6040985428372</v>
+        <v>869.3865399095336</v>
       </c>
     </row>
     <row r="45">
@@ -926,7 +926,7 @@
         <v>1205</v>
       </c>
       <c r="C45" t="n">
-        <v>817.06237771062</v>
+        <v>870.7325170135283</v>
       </c>
     </row>
     <row r="46">
@@ -937,7 +937,7 @@
         <v>1237</v>
       </c>
       <c r="C46" t="n">
-        <v>818.7052698166442</v>
+        <v>871.2678564970488</v>
       </c>
     </row>
     <row r="47">
@@ -948,7 +948,7 @@
         <v>1271</v>
       </c>
       <c r="C47" t="n">
-        <v>820.8573035386469</v>
+        <v>872.3284442189172</v>
       </c>
     </row>
     <row r="48">
@@ -959,7 +959,7 @@
         <v>1306</v>
       </c>
       <c r="C48" t="n">
-        <v>823.4405287312895</v>
+        <v>873.8659577574026</v>
       </c>
     </row>
     <row r="49">
@@ -970,7 +970,7 @@
         <v>1341</v>
       </c>
       <c r="C49" t="n">
-        <v>825.1954405059658</v>
+        <v>874.6288808151314</v>
       </c>
     </row>
     <row r="50">
@@ -981,7 +981,7 @@
         <v>1377</v>
       </c>
       <c r="C50" t="n">
-        <v>827.8144038121882</v>
+        <v>876.3070160069386</v>
       </c>
     </row>
     <row r="51">
@@ -992,7 +992,7 @@
         <v>1414</v>
       </c>
       <c r="C51" t="n">
-        <v>830.96672262295</v>
+        <v>878.567446600087</v>
       </c>
     </row>
     <row r="52">
@@ -1003,7 +1003,7 @@
         <v>1452</v>
       </c>
       <c r="C52" t="n">
-        <v>834.320184569859</v>
+        <v>881.0688014435631</v>
       </c>
     </row>
     <row r="53">
@@ -1014,7 +1014,7 @@
         <v>1492</v>
       </c>
       <c r="C53" t="n">
-        <v>839.4799037163558</v>
+        <v>885.4207806928694</v>
       </c>
     </row>
     <row r="54">
@@ -1025,7 +1025,7 @@
         <v>1532</v>
       </c>
       <c r="C54" t="n">
-        <v>844.4099869603372</v>
+        <v>889.5972363174299</v>
       </c>
     </row>
     <row r="55">
@@ -1036,7 +1036,7 @@
         <v>1573</v>
       </c>
       <c r="C55" t="n">
-        <v>851.687195072004</v>
+        <v>896.1835570983068</v>
       </c>
     </row>
     <row r="56">
@@ -1047,7 +1047,7 @@
         <v>1616</v>
       </c>
       <c r="C56" t="n">
-        <v>858.7458122613078</v>
+        <v>902.543097856201</v>
       </c>
     </row>
     <row r="57">
@@ -1058,7 +1058,7 @@
         <v>1659</v>
       </c>
       <c r="C57" t="n">
-        <v>862.4112412172202</v>
+        <v>905.4819096943056</v>
       </c>
     </row>
     <row r="58">
@@ -1069,7 +1069,7 @@
         <v>1704</v>
       </c>
       <c r="C58" t="n">
-        <v>864.5138963103705</v>
+        <v>906.8315150554396</v>
       </c>
     </row>
     <row r="59">
@@ -1080,7 +1080,7 @@
         <v>1751</v>
       </c>
       <c r="C59" t="n">
-        <v>866.8446739348301</v>
+        <v>908.4255157144617</v>
       </c>
     </row>
     <row r="60">
@@ -1091,7 +1091,7 @@
         <v>2098</v>
       </c>
       <c r="C60" t="n">
-        <v>877.0623931080302</v>
+        <v>914.2809693117871</v>
       </c>
     </row>
     <row r="61">
@@ -1102,7 +1102,7 @@
         <v>2938</v>
       </c>
       <c r="C61" t="n">
-        <v>894.4743012261335</v>
+        <v>925.8389506994203</v>
       </c>
     </row>
     <row r="62">
@@ -1113,7 +1113,7 @@
         <v>3060</v>
       </c>
       <c r="C62" t="n">
-        <v>896.5836686863904</v>
+        <v>927.4012527188402</v>
       </c>
     </row>
     <row r="63">
@@ -1124,7 +1124,7 @@
         <v>3184</v>
       </c>
       <c r="C63" t="n">
-        <v>898.6295719495274</v>
+        <v>928.9396604447164</v>
       </c>
     </row>
     <row r="64">
@@ -1135,7 +1135,7 @@
         <v>3307</v>
       </c>
       <c r="C64" t="n">
-        <v>900.3069315102197</v>
+        <v>930.1484398045457</v>
       </c>
     </row>
     <row r="65">
@@ -1146,7 +1146,7 @@
         <v>3430</v>
       </c>
       <c r="C65" t="n">
-        <v>901.9375854950606</v>
+        <v>931.3527854079018</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>417.7</v>
+        <v>300.5</v>
       </c>
       <c r="C2">
-        <v>363.6540506416486</v>
+        <v>704.3133693271919</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>452.1</v>
+        <v>314.5</v>
       </c>
       <c r="C3">
-        <v>359.0745542395579</v>
+        <v>686.9740557409187</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>486.8</v>
+        <v>328.4</v>
       </c>
       <c r="C4">
-        <v>354.961448346125</v>
+        <v>697.1478495955141</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>521.5</v>
+        <v>342</v>
       </c>
       <c r="C5">
-        <v>350.2509029786882</v>
+        <v>708.8310419864907</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>556</v>
+        <v>356</v>
       </c>
       <c r="C6">
-        <v>347.0411492597636</v>
+        <v>712.5912987658855</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>563.5</v>
+        <v>369.6</v>
       </c>
       <c r="C7">
-        <v>346.1649692028113</v>
+        <v>718.2218431714959</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>588.4000000000001</v>
+        <v>383.5</v>
       </c>
       <c r="C8">
-        <v>344.5837322092471</v>
+        <v>726.018359510916</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>614</v>
+        <v>397.5</v>
       </c>
       <c r="C9">
-        <v>342.2496015912379</v>
+        <v>724.8644724312525</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>639</v>
+        <v>411.1</v>
       </c>
       <c r="C10">
-        <v>340.3402613990636</v>
+        <v>722.577858361384</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>664.6</v>
+        <v>425</v>
       </c>
       <c r="C11">
-        <v>338.1292137216718</v>
+        <v>727.0246601275287</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>689.5</v>
+        <v>439</v>
       </c>
       <c r="C12">
-        <v>337.0536611088104</v>
+        <v>731.5756397161532</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>715</v>
+        <v>452.6</v>
       </c>
       <c r="C13">
-        <v>335.2780991875415</v>
+        <v>731.7144591617586</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>740</v>
+        <v>466.6</v>
       </c>
       <c r="C14">
-        <v>333.8077284642526</v>
+        <v>732.8499370130581</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>765</v>
+        <v>480.5</v>
       </c>
       <c r="C15">
-        <v>332.4574394134583</v>
+        <v>732.0109699673338</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>790.5</v>
+        <v>494.1</v>
       </c>
       <c r="C16">
-        <v>331.5046757255136</v>
+        <v>733.5484968087336</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>816</v>
+        <v>508.3</v>
       </c>
       <c r="C17">
-        <v>330.3331087902706</v>
+        <v>730.5707453100218</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>841.3000000000001</v>
+        <v>522</v>
       </c>
       <c r="C18">
-        <v>328.9271218186452</v>
+        <v>735.8716051000247</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>866</v>
+        <v>535.5999999999999</v>
       </c>
       <c r="C19">
-        <v>327.6039502914107</v>
+        <v>737.6614333026721</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>891.5999999999999</v>
+        <v>550</v>
       </c>
       <c r="C20">
-        <v>326.904147007423</v>
+        <v>738.4388434966693</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>917</v>
+        <v>563.5</v>
       </c>
       <c r="C21">
-        <v>326.337685064515</v>
+        <v>739.7035098560823</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>942.4</v>
+        <v>588.4000000000001</v>
       </c>
       <c r="C22">
-        <v>325.8595033246436</v>
+        <v>740.5995569664814</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>967.3000000000001</v>
+        <v>614</v>
       </c>
       <c r="C23">
-        <v>325.1777759286645</v>
+        <v>741.3664004880527</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>992.7</v>
+        <v>639</v>
       </c>
       <c r="C24">
-        <v>325.1445159363486</v>
+        <v>741.8630918425429</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1018</v>
+        <v>664.6</v>
       </c>
       <c r="C25">
-        <v>324.4560172231958</v>
+        <v>742.4857380700089</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1060</v>
+        <v>689.5</v>
       </c>
       <c r="C26">
-        <v>323.1848592670783</v>
+        <v>742.6864641844055</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1098</v>
+        <v>715</v>
       </c>
       <c r="C27">
-        <v>322.5507512440995</v>
+        <v>742.9212700500453</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1138</v>
+        <v>740</v>
       </c>
       <c r="C28">
-        <v>322.3701973158466</v>
+        <v>743.1444607878257</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1179</v>
+        <v>765</v>
       </c>
       <c r="C29">
-        <v>321.7804585626816</v>
+        <v>743.3359770652181</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1222</v>
+        <v>790.5</v>
       </c>
       <c r="C30">
-        <v>321.391865292342</v>
+        <v>743.5288691962638</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1266</v>
+        <v>816</v>
       </c>
       <c r="C31">
-        <v>320.8278465730574</v>
+        <v>743.5043738865943</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1312</v>
+        <v>841.3000000000001</v>
       </c>
       <c r="C32">
-        <v>320.4354453317792</v>
+        <v>743.5812612943682</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1358</v>
+        <v>866</v>
       </c>
       <c r="C33">
-        <v>319.8184799955151</v>
+        <v>743.6769156722312</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1408</v>
+        <v>891.5999999999999</v>
       </c>
       <c r="C34">
-        <v>318.5634300157947</v>
+        <v>743.7060042859711</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1459</v>
+        <v>917</v>
       </c>
       <c r="C35">
-        <v>317.5718713299691</v>
+        <v>743.7770749892936</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1512</v>
+        <v>942.4</v>
       </c>
       <c r="C36">
-        <v>316.0368097745447</v>
+        <v>743.8176213373504</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1566</v>
+        <v>967.3000000000001</v>
       </c>
       <c r="C37">
-        <v>314.4481552929124</v>
+        <v>743.7738191475862</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1623</v>
+        <v>992.7</v>
       </c>
       <c r="C38">
-        <v>312.9710084636139</v>
+        <v>743.7862621196833</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1682</v>
+        <v>1018</v>
       </c>
       <c r="C39">
-        <v>312.7663986918217</v>
+        <v>743.8876858174571</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,285 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1743</v>
+        <v>1055</v>
       </c>
       <c r="C40">
-        <v>311.813098995084</v>
+        <v>743.9433101416038</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1083</v>
+      </c>
+      <c r="C41">
+        <v>744.1013491696901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1112</v>
+      </c>
+      <c r="C42">
+        <v>744.132675177922</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1143</v>
+      </c>
+      <c r="C43">
+        <v>744.243805770095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1174</v>
+      </c>
+      <c r="C44">
+        <v>744.3707989247539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1205</v>
+      </c>
+      <c r="C45">
+        <v>744.56069659945</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1237</v>
+      </c>
+      <c r="C46">
+        <v>744.7778539927397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1271</v>
+      </c>
+      <c r="C47">
+        <v>745.0123155428034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1306</v>
+      </c>
+      <c r="C48">
+        <v>745.3141678235297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1341</v>
+      </c>
+      <c r="C49">
+        <v>745.7356408565596</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1377</v>
+      </c>
+      <c r="C50">
+        <v>746.2094573807976</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1414</v>
+      </c>
+      <c r="C51">
+        <v>746.7674708976357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1452</v>
+      </c>
+      <c r="C52">
+        <v>747.4083864059677</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1492</v>
+      </c>
+      <c r="C53">
+        <v>747.927753055433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1532</v>
+      </c>
+      <c r="C54">
+        <v>748.4336959086013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1573</v>
+      </c>
+      <c r="C55">
+        <v>748.6162162658738</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1616</v>
+      </c>
+      <c r="C56">
+        <v>748.4099882123508</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1659</v>
+      </c>
+      <c r="C57">
+        <v>748.1248621132863</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1704</v>
+      </c>
+      <c r="C58">
+        <v>747.9217778639802</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1751</v>
+      </c>
+      <c r="C59">
+        <v>747.7542444689344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>2098</v>
+      </c>
+      <c r="C60">
+        <v>746.2247628140517</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2938</v>
+      </c>
+      <c r="C61">
+        <v>743.9612005673002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3060</v>
+      </c>
+      <c r="C62">
+        <v>743.7711936857384</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3184</v>
+      </c>
+      <c r="C63">
+        <v>743.3964595170428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3307</v>
+      </c>
+      <c r="C64">
+        <v>743.2959976072517</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3430</v>
+      </c>
+      <c r="C65">
+        <v>742.8183544393452</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>300.5</v>
+        <v>417.7</v>
       </c>
       <c r="C2">
-        <v>704.3133693271919</v>
+        <v>398.1730506130709</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>314.5</v>
+        <v>452.1</v>
       </c>
       <c r="C3">
-        <v>686.9740557409187</v>
+        <v>392.8019426105989</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>328.4</v>
+        <v>486.8</v>
       </c>
       <c r="C4">
-        <v>697.1478495955141</v>
+        <v>388.2741297458469</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>342</v>
+        <v>521.5</v>
       </c>
       <c r="C5">
-        <v>708.8310419864907</v>
+        <v>383.3036609385276</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="C6">
-        <v>712.5912987658855</v>
+        <v>379.7227892649024</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>369.6</v>
+        <v>563.5</v>
       </c>
       <c r="C7">
-        <v>718.2218431714959</v>
+        <v>378.7407569036949</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>383.5</v>
+        <v>588.4000000000001</v>
       </c>
       <c r="C8">
-        <v>726.018359510916</v>
+        <v>377.0769947037955</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>397.5</v>
+        <v>614</v>
       </c>
       <c r="C9">
-        <v>724.8644724312525</v>
+        <v>374.5758795687948</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>411.1</v>
+        <v>639</v>
       </c>
       <c r="C10">
-        <v>722.577858361384</v>
+        <v>372.5171091937262</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>425</v>
+        <v>664.6</v>
       </c>
       <c r="C11">
-        <v>727.0246601275287</v>
+        <v>370.0874159531242</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>439</v>
+        <v>689.5</v>
       </c>
       <c r="C12">
-        <v>731.5756397161532</v>
+        <v>369.0382514067725</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>452.6</v>
+        <v>715</v>
       </c>
       <c r="C13">
-        <v>731.7144591617586</v>
+        <v>367.1398462494757</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>466.6</v>
+        <v>740</v>
       </c>
       <c r="C14">
-        <v>732.8499370130581</v>
+        <v>365.5536976054918</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>480.5</v>
+        <v>765</v>
       </c>
       <c r="C15">
-        <v>732.0109699673338</v>
+        <v>364.0762856442769</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>494.1</v>
+        <v>790.5</v>
       </c>
       <c r="C16">
-        <v>733.5484968087336</v>
+        <v>363.1504322111345</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>508.3</v>
+        <v>816</v>
       </c>
       <c r="C17">
-        <v>730.5707453100218</v>
+        <v>361.9026959363891</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>522</v>
+        <v>841.3000000000001</v>
       </c>
       <c r="C18">
-        <v>735.8716051000247</v>
+        <v>360.2930430570694</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>535.5999999999999</v>
+        <v>866</v>
       </c>
       <c r="C19">
-        <v>737.6614333026721</v>
+        <v>358.8507820273534</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>550</v>
+        <v>891.5999999999999</v>
       </c>
       <c r="C20">
-        <v>738.4388434966693</v>
+        <v>358.0233660628318</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>563.5</v>
+        <v>917</v>
       </c>
       <c r="C21">
-        <v>739.7035098560823</v>
+        <v>357.4832663142402</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>588.4000000000001</v>
+        <v>942.4</v>
       </c>
       <c r="C22">
-        <v>740.5995569664814</v>
+        <v>356.9504137055368</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>614</v>
+        <v>967.3000000000001</v>
       </c>
       <c r="C23">
-        <v>741.3664004880527</v>
+        <v>356.2839231341375</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>639</v>
+        <v>992.7</v>
       </c>
       <c r="C24">
-        <v>741.8630918425429</v>
+        <v>356.2845572947504</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>664.6</v>
+        <v>1018</v>
       </c>
       <c r="C25">
-        <v>742.4857380700089</v>
+        <v>355.5007571313107</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>689.5</v>
+        <v>1060</v>
       </c>
       <c r="C26">
-        <v>742.6864641844055</v>
+        <v>354.0949639384561</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>715</v>
+        <v>1098</v>
       </c>
       <c r="C27">
-        <v>742.9212700500453</v>
+        <v>353.3660759760249</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>740</v>
+        <v>1138</v>
       </c>
       <c r="C28">
-        <v>743.1444607878257</v>
+        <v>353.1658358497669</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>765</v>
+        <v>1179</v>
       </c>
       <c r="C29">
-        <v>743.3359770652181</v>
+        <v>352.915050874647</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>790.5</v>
+        <v>1222</v>
       </c>
       <c r="C30">
-        <v>743.5288691962638</v>
+        <v>351.9180372286712</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>816</v>
+        <v>1266</v>
       </c>
       <c r="C31">
-        <v>743.5043738865943</v>
+        <v>352.0773258580689</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>841.3000000000001</v>
+        <v>1312</v>
       </c>
       <c r="C32">
-        <v>743.5812612943682</v>
+        <v>351.6742853907351</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>866</v>
+        <v>1358</v>
       </c>
       <c r="C33">
-        <v>743.6769156722312</v>
+        <v>349.8533513262014</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>891.5999999999999</v>
+        <v>1408</v>
       </c>
       <c r="C34">
-        <v>743.7060042859711</v>
+        <v>349.1688359029688</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>917</v>
+        <v>1459</v>
       </c>
       <c r="C35">
-        <v>743.7770749892936</v>
+        <v>348.8654651081502</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>942.4</v>
+        <v>1512</v>
       </c>
       <c r="C36">
-        <v>743.8176213373504</v>
+        <v>345.8369458093636</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>967.3000000000001</v>
+        <v>1566</v>
       </c>
       <c r="C37">
-        <v>743.7738191475862</v>
+        <v>342.9955514114847</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>992.7</v>
+        <v>1623</v>
       </c>
       <c r="C38">
-        <v>743.7862621196833</v>
+        <v>341.3428477462288</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1018</v>
+        <v>1682</v>
       </c>
       <c r="C39">
-        <v>743.8876858174571</v>
+        <v>343.68753107894</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,285 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1055</v>
+        <v>1743</v>
       </c>
       <c r="C40">
-        <v>743.9433101416038</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>1083</v>
-      </c>
-      <c r="C41">
-        <v>744.1013491696901</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>1112</v>
-      </c>
-      <c r="C42">
-        <v>744.132675177922</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>1143</v>
-      </c>
-      <c r="C43">
-        <v>744.243805770095</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>1174</v>
-      </c>
-      <c r="C44">
-        <v>744.3707989247539</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>1205</v>
-      </c>
-      <c r="C45">
-        <v>744.56069659945</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>1237</v>
-      </c>
-      <c r="C46">
-        <v>744.7778539927397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>1271</v>
-      </c>
-      <c r="C47">
-        <v>745.0123155428034</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>1306</v>
-      </c>
-      <c r="C48">
-        <v>745.3141678235297</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1341</v>
-      </c>
-      <c r="C49">
-        <v>745.7356408565596</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>1377</v>
-      </c>
-      <c r="C50">
-        <v>746.2094573807976</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1414</v>
-      </c>
-      <c r="C51">
-        <v>746.7674708976357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>1452</v>
-      </c>
-      <c r="C52">
-        <v>747.4083864059677</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>1492</v>
-      </c>
-      <c r="C53">
-        <v>747.927753055433</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>1532</v>
-      </c>
-      <c r="C54">
-        <v>748.4336959086013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>1573</v>
-      </c>
-      <c r="C55">
-        <v>748.6162162658738</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>1616</v>
-      </c>
-      <c r="C56">
-        <v>748.4099882123508</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>1659</v>
-      </c>
-      <c r="C57">
-        <v>748.1248621132863</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>1704</v>
-      </c>
-      <c r="C58">
-        <v>747.9217778639802</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>1751</v>
-      </c>
-      <c r="C59">
-        <v>747.7542444689344</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>2098</v>
-      </c>
-      <c r="C60">
-        <v>746.2247628140517</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>2938</v>
-      </c>
-      <c r="C61">
-        <v>743.9612005673002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>3060</v>
-      </c>
-      <c r="C62">
-        <v>743.7711936857384</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>3184</v>
-      </c>
-      <c r="C63">
-        <v>743.3964595170428</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>3307</v>
-      </c>
-      <c r="C64">
-        <v>743.2959976072517</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>3430</v>
-      </c>
-      <c r="C65">
-        <v>742.8183544393452</v>
+        <v>341.7851252598414</v>
       </c>
     </row>
   </sheetData>

--- a/output_transit_depth.xlsx
+++ b/output_transit_depth.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>417.7</v>
+        <v>432</v>
       </c>
       <c r="C2">
-        <v>398.1730506130709</v>
+        <v>5972.417210512671</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>452.1</v>
+        <v>487</v>
       </c>
       <c r="C3">
-        <v>392.8019426105989</v>
+        <v>6115.046606197327</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>486.8</v>
+        <v>521.5</v>
       </c>
       <c r="C4">
-        <v>388.2741297458469</v>
+        <v>6288.871927893402</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>521.5</v>
+        <v>556</v>
       </c>
       <c r="C5">
-        <v>383.3036609385276</v>
+        <v>6441.067473570095</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>556</v>
+        <v>563.5</v>
       </c>
       <c r="C6">
-        <v>379.7227892649024</v>
+        <v>6473.902900933859</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>563.5</v>
+        <v>588.4000000000001</v>
       </c>
       <c r="C7">
-        <v>378.7407569036949</v>
+        <v>6558.985611050061</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>588.4000000000001</v>
+        <v>614</v>
       </c>
       <c r="C8">
-        <v>377.0769947037955</v>
+        <v>6659.305107154622</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="C9">
-        <v>374.5758795687948</v>
+        <v>6743.548068764538</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>639</v>
+        <v>664.6</v>
       </c>
       <c r="C10">
-        <v>372.5171091937262</v>
+        <v>6849.272070754142</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>664.6</v>
+        <v>689.5</v>
       </c>
       <c r="C11">
-        <v>370.0874159531242</v>
+        <v>6877.455881997951</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>689.5</v>
+        <v>715</v>
       </c>
       <c r="C12">
-        <v>369.0382514067725</v>
+        <v>6945.655292451503</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="C13">
-        <v>367.1398462494757</v>
+        <v>7012.398624499871</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="C14">
-        <v>365.5536976054918</v>
+        <v>7064.864030653095</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>765</v>
+        <v>790.5</v>
       </c>
       <c r="C15">
-        <v>364.0762856442769</v>
+        <v>7112.968743412273</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>790.5</v>
+        <v>816</v>
       </c>
       <c r="C16">
-        <v>363.1504322111345</v>
+        <v>7153.876107734214</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>816</v>
+        <v>841.3000000000001</v>
       </c>
       <c r="C17">
-        <v>361.9026959363891</v>
+        <v>7212.839593465304</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>841.3000000000001</v>
+        <v>866</v>
       </c>
       <c r="C18">
-        <v>360.2930430570694</v>
+        <v>7268.546381995367</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>866</v>
+        <v>891.5999999999999</v>
       </c>
       <c r="C19">
-        <v>358.8507820273534</v>
+        <v>7304.881634206284</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>891.5999999999999</v>
+        <v>917</v>
       </c>
       <c r="C20">
-        <v>358.0233660628318</v>
+        <v>7319.530341916236</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>917</v>
+        <v>942.4</v>
       </c>
       <c r="C21">
-        <v>357.4832663142402</v>
+        <v>7340.992164675764</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>942.4</v>
+        <v>967.3000000000001</v>
       </c>
       <c r="C22">
-        <v>356.9504137055368</v>
+        <v>7378.68323344848</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>967.3000000000001</v>
+        <v>992.7</v>
       </c>
       <c r="C23">
-        <v>356.2839231341375</v>
+        <v>7376.375151511461</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>992.7</v>
+        <v>1018</v>
       </c>
       <c r="C24">
-        <v>356.2845572947504</v>
+        <v>7417.355889854926</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1018</v>
+        <v>1060</v>
       </c>
       <c r="C25">
-        <v>355.5007571313107</v>
+        <v>7454.962837835755</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1060</v>
+        <v>1098</v>
       </c>
       <c r="C26">
-        <v>354.0949639384561</v>
+        <v>7500.377589019557</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1098</v>
+        <v>1138</v>
       </c>
       <c r="C27">
-        <v>353.3660759760249</v>
+        <v>7512.81625724276</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1138</v>
+        <v>1179</v>
       </c>
       <c r="C28">
-        <v>353.1658358497669</v>
+        <v>7542.425147121889</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1179</v>
+        <v>1222</v>
       </c>
       <c r="C29">
-        <v>352.915050874647</v>
+        <v>7562.234338563289</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1222</v>
+        <v>1266</v>
       </c>
       <c r="C30">
-        <v>351.9180372286712</v>
+        <v>7606.5666395152</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1266</v>
+        <v>1312</v>
       </c>
       <c r="C31">
-        <v>352.0773258580689</v>
+        <v>7620.387514353233</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1312</v>
+        <v>1358</v>
       </c>
       <c r="C32">
-        <v>351.6742853907351</v>
+        <v>7659.663571842446</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1358</v>
+        <v>1408</v>
       </c>
       <c r="C33">
-        <v>349.8533513262014</v>
+        <v>7693.906455520149</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1408</v>
+        <v>1459</v>
       </c>
       <c r="C34">
-        <v>349.1688359029688</v>
+        <v>7737.625186532094</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1459</v>
+        <v>1512</v>
       </c>
       <c r="C35">
-        <v>348.8654651081502</v>
+        <v>7790.108090967696</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1512</v>
+        <v>1566</v>
       </c>
       <c r="C36">
-        <v>345.8369458093636</v>
+        <v>7839.396851434865</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1566</v>
+        <v>1623</v>
       </c>
       <c r="C37">
-        <v>342.9955514114847</v>
+        <v>7889.153015117722</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1623</v>
+        <v>1682</v>
       </c>
       <c r="C38">
-        <v>341.3428477462288</v>
+        <v>7887.856185671338</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,21 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1682</v>
+        <v>1743</v>
       </c>
       <c r="C39">
-        <v>343.68753107894</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>1743</v>
-      </c>
-      <c r="C40">
-        <v>341.7851252598414</v>
+        <v>7938.074636931969</v>
       </c>
     </row>
   </sheetData>
